--- a/CLB_Catalog.xlsx
+++ b/CLB_Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksj/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8FA8DA-710F-0746-84E5-3D9397564962}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE2905B-34CB-964B-9427-6C1B3ED30146}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="500" windowWidth="29460" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1193,7 +1193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1330,6 +1330,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1339,7 +1350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1373,21 +1384,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1403,15 +1405,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1430,9 +1426,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1505,9 +1498,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1556,7 +1546,16 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1835,11 +1834,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A176" sqref="A176"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1847,8 +1846,8 @@
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" style="10" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="21" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="1" customWidth="1"/>
@@ -1864,10 +1863,10 @@
       <c r="C1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="20" t="s">
         <v>216</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1884,26 +1883,26 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="36"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5">
@@ -1913,8 +1912,8 @@
         <v>1</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1938,8 +1937,8 @@
         <v>6</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1963,8 +1962,8 @@
         <v>7</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1988,8 +1987,8 @@
         <v>8</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -2013,8 +2012,8 @@
         <v>9</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -2038,8 +2037,8 @@
         <v>10</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -2063,8 +2062,8 @@
         <v>11</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -2088,8 +2087,8 @@
         <v>12</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -2113,8 +2112,8 @@
         <v>13</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -2138,8 +2137,8 @@
         <v>14</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -2163,8 +2162,8 @@
         <v>15</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -2188,8 +2187,8 @@
         <v>16</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -2213,8 +2212,8 @@
         <v>17</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -2238,8 +2237,8 @@
         <v>18</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -2263,8 +2262,8 @@
         <v>19</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -2288,8 +2287,8 @@
         <v>20</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -2313,8 +2312,8 @@
         <v>21</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -2338,8 +2337,8 @@
         <v>22</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -2363,8 +2362,8 @@
         <v>23</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -2388,8 +2387,8 @@
         <v>24</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -2413,8 +2412,8 @@
         <v>25</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -2438,8 +2437,8 @@
         <v>26</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -2463,8 +2462,8 @@
         <v>27</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -2488,8 +2487,8 @@
         <v>28</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -2513,8 +2512,8 @@
         <v>29</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -2538,8 +2537,8 @@
         <v>30</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -2563,8 +2562,8 @@
         <v>31</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -2588,8 +2587,8 @@
         <v>32</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -2613,8 +2612,8 @@
         <v>33</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -2638,8 +2637,8 @@
         <v>34</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="5" t="s">
@@ -2663,8 +2662,8 @@
         <v>35</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -2688,8 +2687,8 @@
         <v>36</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="5" t="s">
@@ -2713,8 +2712,8 @@
         <v>37</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F36" s="5" t="s">
@@ -2731,26 +2730,26 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="36"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="40"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="45"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5">
@@ -2760,8 +2759,8 @@
         <v>38</v>
       </c>
       <c r="C39" s="9"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="28" t="s">
+      <c r="D39" s="24"/>
+      <c r="E39" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -2785,8 +2784,8 @@
         <v>40</v>
       </c>
       <c r="C40" s="9"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="28" t="s">
+      <c r="D40" s="24"/>
+      <c r="E40" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -2810,8 +2809,8 @@
         <v>41</v>
       </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="28" t="s">
+      <c r="D41" s="24"/>
+      <c r="E41" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F41" s="5" t="s">
@@ -2835,8 +2834,8 @@
         <v>42</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="28" t="s">
+      <c r="D42" s="24"/>
+      <c r="E42" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -2860,8 +2859,8 @@
         <v>43</v>
       </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="28" t="s">
+      <c r="D43" s="24"/>
+      <c r="E43" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -2885,8 +2884,8 @@
         <v>44</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="28" t="s">
+      <c r="D44" s="24"/>
+      <c r="E44" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F44" s="5" t="s">
@@ -2910,8 +2909,8 @@
         <v>45</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="28" t="s">
+      <c r="D45" s="24"/>
+      <c r="E45" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="5" t="s">
@@ -2935,8 +2934,8 @@
         <v>46</v>
       </c>
       <c r="C46" s="9"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="28" t="s">
+      <c r="D46" s="24"/>
+      <c r="E46" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -2960,8 +2959,8 @@
         <v>47</v>
       </c>
       <c r="C47" s="9"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="28" t="s">
+      <c r="D47" s="24"/>
+      <c r="E47" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="5" t="s">
@@ -2985,8 +2984,8 @@
         <v>48</v>
       </c>
       <c r="C48" s="9"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="28" t="s">
+      <c r="D48" s="24"/>
+      <c r="E48" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="5" t="s">
@@ -3010,8 +3009,8 @@
         <v>49</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="28" t="s">
+      <c r="D49" s="24"/>
+      <c r="E49" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="5" t="s">
@@ -3035,8 +3034,8 @@
         <v>50</v>
       </c>
       <c r="C50" s="9"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="28" t="s">
+      <c r="D50" s="24"/>
+      <c r="E50" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F50" s="5" t="s">
@@ -3060,8 +3059,8 @@
         <v>51</v>
       </c>
       <c r="C51" s="9"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="28" t="s">
+      <c r="D51" s="24"/>
+      <c r="E51" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F51" s="5" t="s">
@@ -3085,8 +3084,8 @@
         <v>52</v>
       </c>
       <c r="C52" s="9"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="28" t="s">
+      <c r="D52" s="24"/>
+      <c r="E52" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F52" s="5" t="s">
@@ -3110,8 +3109,8 @@
         <v>53</v>
       </c>
       <c r="C53" s="9"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="28" t="s">
+      <c r="D53" s="24"/>
+      <c r="E53" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="5" t="s">
@@ -3135,8 +3134,8 @@
         <v>54</v>
       </c>
       <c r="C54" s="9"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="28" t="s">
+      <c r="D54" s="24"/>
+      <c r="E54" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F54" s="5" t="s">
@@ -3160,8 +3159,8 @@
         <v>55</v>
       </c>
       <c r="C55" s="9"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="28" t="s">
+      <c r="D55" s="24"/>
+      <c r="E55" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="5" t="s">
@@ -3185,8 +3184,8 @@
         <v>56</v>
       </c>
       <c r="C56" s="9"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="28" t="s">
+      <c r="D56" s="24"/>
+      <c r="E56" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="5" t="s">
@@ -3210,8 +3209,8 @@
         <v>57</v>
       </c>
       <c r="C57" s="9"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="28" t="s">
+      <c r="D57" s="24"/>
+      <c r="E57" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="5" t="s">
@@ -3235,8 +3234,8 @@
         <v>58</v>
       </c>
       <c r="C58" s="9"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="28" t="s">
+      <c r="D58" s="24"/>
+      <c r="E58" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="5" t="s">
@@ -3260,8 +3259,8 @@
         <v>59</v>
       </c>
       <c r="C59" s="9"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="28" t="s">
+      <c r="D59" s="24"/>
+      <c r="E59" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="5" t="s">
@@ -3285,8 +3284,8 @@
         <v>60</v>
       </c>
       <c r="C60" s="9"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="28" t="s">
+      <c r="D60" s="24"/>
+      <c r="E60" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="5" t="s">
@@ -3310,8 +3309,8 @@
         <v>61</v>
       </c>
       <c r="C61" s="9"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="28" t="s">
+      <c r="D61" s="24"/>
+      <c r="E61" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F61" s="5" t="s">
@@ -3335,8 +3334,8 @@
         <v>62</v>
       </c>
       <c r="C62" s="9"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="28" t="s">
+      <c r="D62" s="24"/>
+      <c r="E62" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="5" t="s">
@@ -3360,8 +3359,8 @@
         <v>63</v>
       </c>
       <c r="C63" s="9"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="28" t="s">
+      <c r="D63" s="24"/>
+      <c r="E63" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F63" s="5" t="s">
@@ -3385,8 +3384,8 @@
         <v>64</v>
       </c>
       <c r="C64" s="9"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="28" t="s">
+      <c r="D64" s="24"/>
+      <c r="E64" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="5" t="s">
@@ -3410,8 +3409,8 @@
         <v>65</v>
       </c>
       <c r="C65" s="9"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="28" t="s">
+      <c r="D65" s="24"/>
+      <c r="E65" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="5" t="s">
@@ -3435,8 +3434,8 @@
         <v>66</v>
       </c>
       <c r="C66" s="9"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="28" t="s">
+      <c r="D66" s="24"/>
+      <c r="E66" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F66" s="5" t="s">
@@ -3460,8 +3459,8 @@
         <v>67</v>
       </c>
       <c r="C67" s="9"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="28" t="s">
+      <c r="D67" s="24"/>
+      <c r="E67" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="5" t="s">
@@ -3485,8 +3484,8 @@
         <v>68</v>
       </c>
       <c r="C68" s="9"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="28" t="s">
+      <c r="D68" s="24"/>
+      <c r="E68" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F68" s="5" t="s">
@@ -3510,8 +3509,8 @@
         <v>69</v>
       </c>
       <c r="C69" s="9"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="28" t="s">
+      <c r="D69" s="24"/>
+      <c r="E69" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="5" t="s">
@@ -3535,8 +3534,8 @@
         <v>70</v>
       </c>
       <c r="C70" s="9"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="28" t="s">
+      <c r="D70" s="24"/>
+      <c r="E70" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="5" t="s">
@@ -3560,8 +3559,8 @@
         <v>71</v>
       </c>
       <c r="C71" s="9"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="28" t="s">
+      <c r="D71" s="24"/>
+      <c r="E71" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F71" s="5" t="s">
@@ -3585,8 +3584,8 @@
         <v>72</v>
       </c>
       <c r="C72" s="9"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="28" t="s">
+      <c r="D72" s="24"/>
+      <c r="E72" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F72" s="5" t="s">
@@ -3610,8 +3609,8 @@
         <v>73</v>
       </c>
       <c r="C73" s="9"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="28" t="s">
+      <c r="D73" s="24"/>
+      <c r="E73" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F73" s="5" t="s">
@@ -3635,8 +3634,8 @@
         <v>74</v>
       </c>
       <c r="C74" s="9"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="28" t="s">
+      <c r="D74" s="24"/>
+      <c r="E74" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F74" s="5" t="s">
@@ -3660,8 +3659,8 @@
         <v>75</v>
       </c>
       <c r="C75" s="9"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="28" t="s">
+      <c r="D75" s="24"/>
+      <c r="E75" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="5" t="s">
@@ -3685,8 +3684,8 @@
         <v>76</v>
       </c>
       <c r="C76" s="9"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="28" t="s">
+      <c r="D76" s="24"/>
+      <c r="E76" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="5" t="s">
@@ -3710,8 +3709,8 @@
         <v>77</v>
       </c>
       <c r="C77" s="9"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="28" t="s">
+      <c r="D77" s="24"/>
+      <c r="E77" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F77" s="5" t="s">
@@ -3735,8 +3734,8 @@
         <v>78</v>
       </c>
       <c r="C78" s="9"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="28" t="s">
+      <c r="D78" s="24"/>
+      <c r="E78" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F78" s="5" t="s">
@@ -3760,8 +3759,8 @@
         <v>79</v>
       </c>
       <c r="C79" s="9"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="28" t="s">
+      <c r="D79" s="24"/>
+      <c r="E79" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F79" s="5" t="s">
@@ -3785,8 +3784,8 @@
         <v>80</v>
       </c>
       <c r="C80" s="9"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="28" t="s">
+      <c r="D80" s="24"/>
+      <c r="E80" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="5" t="s">
@@ -3810,8 +3809,8 @@
         <v>81</v>
       </c>
       <c r="C81" s="9"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="28" t="s">
+      <c r="D81" s="24"/>
+      <c r="E81" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F81" s="5" t="s">
@@ -3835,8 +3834,8 @@
         <v>82</v>
       </c>
       <c r="C82" s="9"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="28" t="s">
+      <c r="D82" s="24"/>
+      <c r="E82" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F82" s="5" t="s">
@@ -3860,8 +3859,8 @@
         <v>83</v>
       </c>
       <c r="C83" s="9"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="28" t="s">
+      <c r="D83" s="24"/>
+      <c r="E83" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F83" s="5" t="s">
@@ -3885,8 +3884,8 @@
         <v>84</v>
       </c>
       <c r="C84" s="9"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="28" t="s">
+      <c r="D84" s="24"/>
+      <c r="E84" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F84" s="5" t="s">
@@ -3910,8 +3909,8 @@
         <v>85</v>
       </c>
       <c r="C85" s="9"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="28" t="s">
+      <c r="D85" s="24"/>
+      <c r="E85" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F85" s="5" t="s">
@@ -3928,26 +3927,26 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="36"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="40"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="34"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="41"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="45"/>
+      <c r="A87" s="35"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="39"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="5">
@@ -3959,10 +3958,10 @@
       <c r="C88" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D88" s="31" t="s">
+      <c r="D88" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E88" s="31" t="s">
+      <c r="E88" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="5" t="s">
@@ -3988,10 +3987,10 @@
       <c r="C89" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D89" s="31" t="s">
+      <c r="D89" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E89" s="31" t="s">
+      <c r="E89" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="5" t="s">
@@ -4003,31 +4002,31 @@
       <c r="H89" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I89" s="13" t="s">
+      <c r="I89" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="34"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="51"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="52"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="53"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="47"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="34"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="53"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="47"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="5">
@@ -4039,10 +4038,10 @@
       <c r="C92" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="31" t="s">
+      <c r="D92" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E92" s="31" t="s">
+      <c r="E92" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="5" t="s">
@@ -4068,10 +4067,10 @@
       <c r="C93" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D93" s="31" t="s">
+      <c r="D93" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E93" s="31" t="s">
+      <c r="E93" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F93" s="5" t="s">
@@ -4083,7 +4082,7 @@
       <c r="H93" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I93" s="13" t="s">
+      <c r="I93" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4097,10 +4096,10 @@
       <c r="C94" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D94" s="31" t="s">
+      <c r="D94" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E94" s="31" t="s">
+      <c r="E94" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F94" s="5" t="s">
@@ -4126,10 +4125,10 @@
       <c r="C95" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D95" s="31" t="s">
+      <c r="D95" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E95" s="31" t="s">
+      <c r="E95" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="5" t="s">
@@ -4155,10 +4154,10 @@
       <c r="C96" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E96" s="31" t="s">
+      <c r="E96" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="5" t="s">
@@ -4170,7 +4169,7 @@
       <c r="H96" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I96" s="13" t="s">
+      <c r="I96" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4182,8 +4181,8 @@
       <c r="C97" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
       <c r="F97" s="5" t="s">
         <v>249</v>
       </c>
@@ -4193,7 +4192,7 @@
       <c r="H97" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I97" s="13" t="s">
+      <c r="I97" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4205,8 +4204,8 @@
       <c r="C98" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
       <c r="F98" s="5" t="s">
         <v>250</v>
       </c>
@@ -4214,44 +4213,44 @@
       <c r="H98" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I98" s="13" t="s">
+      <c r="I98" s="12" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="51" customHeight="1">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="55" t="s">
+      <c r="C99" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="D99" s="15"/>
-      <c r="E99" s="28"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="67"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="34"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="51"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="52"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="35"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="29"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="34"/>
-      <c r="B101" s="35"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="51"/>
-      <c r="E101" s="51"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="52"/>
-      <c r="H101" s="52"/>
-      <c r="I101" s="35"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="29"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="5">
@@ -4261,10 +4260,10 @@
         <v>201</v>
       </c>
       <c r="C102" s="6"/>
-      <c r="D102" s="31" t="s">
+      <c r="D102" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E102" s="31" t="s">
+      <c r="E102" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F102" s="5" t="s">
@@ -4288,10 +4287,10 @@
         <v>202</v>
       </c>
       <c r="C103" s="6"/>
-      <c r="D103" s="31" t="s">
+      <c r="D103" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E103" s="31" t="s">
+      <c r="E103" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F103" s="5" t="s">
@@ -4303,7 +4302,7 @@
       <c r="H103" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I103" s="13" t="s">
+      <c r="I103" s="12" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4315,10 +4314,10 @@
         <v>203</v>
       </c>
       <c r="C104" s="6"/>
-      <c r="D104" s="31" t="s">
+      <c r="D104" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E104" s="31" t="s">
+      <c r="E104" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F104" s="5" t="s">
@@ -4342,10 +4341,10 @@
         <v>204</v>
       </c>
       <c r="C105" s="6"/>
-      <c r="D105" s="31" t="s">
+      <c r="D105" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E105" s="31" t="s">
+      <c r="E105" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F105" s="5" t="s">
@@ -4357,7 +4356,7 @@
       <c r="H105" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I105" s="13" t="s">
+      <c r="I105" s="12" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4369,10 +4368,10 @@
         <v>205</v>
       </c>
       <c r="C106" s="6"/>
-      <c r="D106" s="31" t="s">
+      <c r="D106" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E106" s="31" t="s">
+      <c r="E106" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F106" s="5" t="s">
@@ -4396,10 +4395,10 @@
         <v>206</v>
       </c>
       <c r="C107" s="6"/>
-      <c r="D107" s="31" t="s">
+      <c r="D107" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E107" s="31" t="s">
+      <c r="E107" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F107" s="5" t="s">
@@ -4411,31 +4410,31 @@
       <c r="H107" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I107" s="13" t="s">
+      <c r="I107" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="34"/>
-      <c r="B108" s="35"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="51"/>
-      <c r="E108" s="51"/>
-      <c r="F108" s="52"/>
-      <c r="G108" s="52"/>
-      <c r="H108" s="52"/>
-      <c r="I108" s="35"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="45"/>
+      <c r="E108" s="45"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="29"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="34"/>
-      <c r="B109" s="35"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="51"/>
-      <c r="E109" s="51"/>
-      <c r="F109" s="52"/>
-      <c r="G109" s="52"/>
-      <c r="H109" s="52"/>
-      <c r="I109" s="35"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="29"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
@@ -4447,16 +4446,16 @@
       <c r="C110" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D110" s="26" t="s">
+      <c r="D110" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="E110" s="54" t="s">
+      <c r="E110" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="F110" s="17" t="s">
+      <c r="F110" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G110" s="17" t="s">
+      <c r="G110" s="14" t="s">
         <v>164</v>
       </c>
       <c r="H110" s="5" t="s">
@@ -4469,9 +4468,9 @@
       <c r="C111" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E111" s="54"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
       <c r="H111" s="5"/>
       <c r="I111" s="6"/>
     </row>
@@ -4482,14 +4481,14 @@
       <c r="C112" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D112" s="26" t="s">
+      <c r="D112" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="E112" s="54" t="s">
+      <c r="E112" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
       <c r="H112" s="5"/>
       <c r="I112" s="6"/>
     </row>
@@ -4503,16 +4502,16 @@
       <c r="C113" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D113" s="31" t="s">
+      <c r="D113" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E113" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="F113" s="17" t="s">
+      <c r="E113" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G113" s="17" t="s">
+      <c r="G113" s="14" t="s">
         <v>164</v>
       </c>
       <c r="H113" s="5" t="s">
@@ -4530,16 +4529,16 @@
       <c r="C114" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="D114" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E114" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F114" s="17" t="s">
+      <c r="E114" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="G114" s="17" t="s">
+      <c r="G114" s="14" t="s">
         <v>164</v>
       </c>
       <c r="H114" s="5" t="s">
@@ -4557,16 +4556,16 @@
       <c r="C115" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E115" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F115" s="17" t="s">
+      <c r="E115" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G115" s="17" t="s">
+      <c r="G115" s="14" t="s">
         <v>165</v>
       </c>
       <c r="H115" s="5" t="s">
@@ -4575,47 +4574,47 @@
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="34"/>
-      <c r="B116" s="35"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
-      <c r="F116" s="52"/>
-      <c r="G116" s="52"/>
-      <c r="H116" s="52"/>
-      <c r="I116" s="35"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="45"/>
+      <c r="E116" s="45"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="46"/>
+      <c r="I116" s="29"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="34"/>
-      <c r="B117" s="35"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="51"/>
-      <c r="E117" s="51"/>
-      <c r="F117" s="52"/>
-      <c r="G117" s="52"/>
-      <c r="H117" s="52"/>
-      <c r="I117" s="35"/>
+      <c r="A117" s="28"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="45"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="46"/>
+      <c r="I117" s="29"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
         <v>1</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="13" t="s">
         <v>170</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="E118" s="32" t="s">
+      <c r="E118" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="F118" s="17" t="s">
+      <c r="F118" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G118" s="17" t="s">
+      <c r="G118" s="14" t="s">
         <v>164</v>
       </c>
       <c r="H118" s="5" t="s">
@@ -4633,16 +4632,16 @@
       <c r="C119" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D119" s="31" t="s">
+      <c r="D119" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E119" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F119" s="17" t="s">
+      <c r="E119" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F119" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G119" s="17" t="s">
+      <c r="G119" s="14" t="s">
         <v>164</v>
       </c>
       <c r="H119" s="5" t="s">
@@ -4657,19 +4656,19 @@
       <c r="B120" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D120" s="31" t="s">
+      <c r="D120" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E120" s="31" t="s">
+      <c r="E120" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F120" s="17" t="s">
+      <c r="F120" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G120" s="17" t="s">
+      <c r="G120" s="14" t="s">
         <v>165</v>
       </c>
       <c r="H120" s="5" t="s">
@@ -4684,19 +4683,19 @@
       <c r="B121" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D121" s="31" t="s">
+      <c r="D121" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E121" s="31" t="s">
+      <c r="E121" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F121" s="17" t="s">
+      <c r="F121" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G121" s="17" t="s">
+      <c r="G121" s="14" t="s">
         <v>165</v>
       </c>
       <c r="H121" s="5" t="s">
@@ -4711,19 +4710,19 @@
       <c r="B122" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="C122" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D122" s="31" t="s">
+      <c r="D122" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E122" s="31" t="s">
+      <c r="E122" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F122" s="17" t="s">
+      <c r="F122" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G122" s="17" t="s">
+      <c r="G122" s="14" t="s">
         <v>165</v>
       </c>
       <c r="H122" s="5" t="s">
@@ -4738,19 +4737,19 @@
       <c r="B123" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C123" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D123" s="31" t="s">
+      <c r="D123" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E123" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F123" s="17" t="s">
+      <c r="E123" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F123" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="G123" s="17" t="s">
+      <c r="G123" s="14" t="s">
         <v>164</v>
       </c>
       <c r="H123" s="5" t="s">
@@ -4765,19 +4764,19 @@
       <c r="B124" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C124" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D124" s="31" t="s">
+      <c r="D124" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E124" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F124" s="17" t="s">
+      <c r="E124" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F124" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G124" s="17" t="s">
+      <c r="G124" s="14" t="s">
         <v>165</v>
       </c>
       <c r="H124" s="5" t="s">
@@ -4789,22 +4788,22 @@
       <c r="A125" s="1">
         <v>13</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C125" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="E125" s="32" t="s">
+      <c r="E125" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="F125" s="17" t="s">
+      <c r="F125" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G125" s="17" t="s">
+      <c r="G125" s="14" t="s">
         <v>165</v>
       </c>
       <c r="H125" s="5" t="s">
@@ -4819,19 +4818,19 @@
       <c r="B126" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="C126" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D126" s="31" t="s">
+      <c r="D126" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E126" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F126" s="17" t="s">
+      <c r="E126" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F126" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G126" s="17" t="s">
+      <c r="G126" s="14" t="s">
         <v>165</v>
       </c>
       <c r="H126" s="5" t="s">
@@ -4846,19 +4845,19 @@
       <c r="B127" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="C127" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D127" s="31" t="s">
+      <c r="D127" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E127" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F127" s="17" t="s">
+      <c r="E127" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F127" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G127" s="17" t="s">
+      <c r="G127" s="14" t="s">
         <v>165</v>
       </c>
       <c r="H127" s="5" t="s">
@@ -4873,19 +4872,19 @@
       <c r="B128" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="C128" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D128" s="31" t="s">
+      <c r="D128" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E128" s="31" t="s">
+      <c r="E128" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F128" s="17" t="s">
+      <c r="F128" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G128" s="17" t="s">
+      <c r="G128" s="14" t="s">
         <v>165</v>
       </c>
       <c r="H128" s="5" t="s">
@@ -4900,19 +4899,19 @@
       <c r="B129" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C129" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D129" s="31" t="s">
+      <c r="D129" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E129" s="31" t="s">
+      <c r="E129" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F129" s="17" t="s">
+      <c r="F129" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="G129" s="17" t="s">
+      <c r="G129" s="14" t="s">
         <v>164</v>
       </c>
       <c r="H129" s="5" t="s">
@@ -4924,22 +4923,22 @@
       <c r="A130" s="1">
         <v>21</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="C130" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D130" s="32" t="s">
+      <c r="D130" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="E130" s="31" t="s">
+      <c r="E130" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="F130" s="17" t="s">
+      <c r="F130" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G130" s="17" t="s">
+      <c r="G130" s="14" t="s">
         <v>165</v>
       </c>
       <c r="H130" s="5" t="s">
@@ -4954,19 +4953,19 @@
       <c r="B131" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="C131" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D131" s="31" t="s">
+      <c r="D131" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E131" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F131" s="17" t="s">
+      <c r="E131" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F131" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G131" s="17" t="s">
+      <c r="G131" s="14" t="s">
         <v>164</v>
       </c>
       <c r="H131" s="5" t="s">
@@ -4978,75 +4977,75 @@
       <c r="A132" s="1">
         <v>24</v>
       </c>
-      <c r="B132" s="56" t="s">
+      <c r="B132" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="C132" s="57" t="s">
+      <c r="C132" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="D132" s="58" t="s">
+      <c r="D132" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="E132" s="58" t="s">
+      <c r="E132" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="F132" s="59" t="s">
+      <c r="F132" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="G132" s="59" t="s">
+      <c r="G132" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="H132" s="60" t="s">
+      <c r="H132" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="I132" s="56"/>
+      <c r="I132" s="49"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="67"/>
-      <c r="B133" s="68"/>
-      <c r="C133" s="69"/>
-      <c r="D133" s="70"/>
-      <c r="E133" s="70"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="71"/>
-      <c r="H133" s="67"/>
-      <c r="I133" s="68"/>
+      <c r="A133" s="60"/>
+      <c r="B133" s="61"/>
+      <c r="C133" s="62"/>
+      <c r="D133" s="63"/>
+      <c r="E133" s="63"/>
+      <c r="F133" s="64"/>
+      <c r="G133" s="64"/>
+      <c r="H133" s="60"/>
+      <c r="I133" s="61"/>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1">
         <v>3</v>
       </c>
-      <c r="B134" s="61"/>
-      <c r="C134" s="62" t="s">
+      <c r="B134" s="54"/>
+      <c r="C134" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="D134" s="63"/>
-      <c r="E134" s="64"/>
-      <c r="F134" s="65" t="s">
+      <c r="D134" s="56"/>
+      <c r="E134" s="57"/>
+      <c r="F134" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="G134" s="65" t="s">
+      <c r="G134" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="H134" s="66" t="s">
+      <c r="H134" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="I134" s="61"/>
+      <c r="I134" s="54"/>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1">
         <v>4</v>
       </c>
       <c r="B135" s="6"/>
-      <c r="C135" s="12" t="s">
+      <c r="C135" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D135" s="31"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="17" t="s">
+      <c r="D135" s="25"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G135" s="17" t="s">
+      <c r="G135" s="14" t="s">
         <v>165</v>
       </c>
       <c r="H135" s="5" t="s">
@@ -5059,15 +5058,15 @@
         <v>7</v>
       </c>
       <c r="B136" s="6"/>
-      <c r="C136" s="12" t="s">
+      <c r="C136" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D136" s="31"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="17" t="s">
+      <c r="D136" s="25"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G136" s="17" t="s">
+      <c r="G136" s="14" t="s">
         <v>164</v>
       </c>
       <c r="H136" s="5" t="s">
@@ -5080,15 +5079,15 @@
         <v>8</v>
       </c>
       <c r="B137" s="6"/>
-      <c r="C137" s="12" t="s">
+      <c r="C137" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D137" s="31"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="17" t="s">
+      <c r="D137" s="25"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G137" s="17" t="s">
+      <c r="G137" s="14" t="s">
         <v>164</v>
       </c>
       <c r="H137" s="5" t="s">
@@ -5101,15 +5100,15 @@
         <v>12</v>
       </c>
       <c r="B138" s="6"/>
-      <c r="C138" s="12" t="s">
+      <c r="C138" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D138" s="31"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="17" t="s">
+      <c r="D138" s="25"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G138" s="17" t="s">
+      <c r="G138" s="14" t="s">
         <v>165</v>
       </c>
       <c r="H138" s="5" t="s">
@@ -5122,15 +5121,15 @@
         <v>14</v>
       </c>
       <c r="B139" s="6"/>
-      <c r="C139" s="12" t="s">
+      <c r="C139" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D139" s="31"/>
-      <c r="E139" s="28"/>
-      <c r="F139" s="17" t="s">
+      <c r="D139" s="25"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G139" s="17" t="s">
+      <c r="G139" s="14" t="s">
         <v>165</v>
       </c>
       <c r="H139" s="5" t="s">
@@ -5143,15 +5142,15 @@
         <v>16</v>
       </c>
       <c r="B140" s="6"/>
-      <c r="C140" s="12" t="s">
+      <c r="C140" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D140" s="31"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="17" t="s">
+      <c r="D140" s="25"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G140" s="17" t="s">
+      <c r="G140" s="14" t="s">
         <v>165</v>
       </c>
       <c r="H140" s="5" t="s">
@@ -5164,15 +5163,15 @@
         <v>19</v>
       </c>
       <c r="B141" s="6"/>
-      <c r="C141" s="12" t="s">
+      <c r="C141" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D141" s="31"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="17" t="s">
+      <c r="D141" s="25"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G141" s="17" t="s">
+      <c r="G141" s="14" t="s">
         <v>165</v>
       </c>
       <c r="H141" s="5" t="s">
@@ -5185,15 +5184,15 @@
         <v>22</v>
       </c>
       <c r="B142" s="6"/>
-      <c r="C142" s="12" t="s">
+      <c r="C142" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D142" s="31"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="17" t="s">
+      <c r="D142" s="25"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G142" s="17" t="s">
+      <c r="G142" s="14" t="s">
         <v>164</v>
       </c>
       <c r="H142" s="5" t="s">
@@ -5206,15 +5205,15 @@
         <v>25</v>
       </c>
       <c r="B143" s="6"/>
-      <c r="C143" s="12" t="s">
+      <c r="C143" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D143" s="31"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="17" t="s">
+      <c r="D143" s="25"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G143" s="17" t="s">
+      <c r="G143" s="14" t="s">
         <v>165</v>
       </c>
       <c r="H143" s="5" t="s">
@@ -5227,15 +5226,15 @@
         <v>26</v>
       </c>
       <c r="B144" s="6"/>
-      <c r="C144" s="12" t="s">
+      <c r="C144" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D144" s="31"/>
-      <c r="E144" s="28"/>
-      <c r="F144" s="17" t="s">
+      <c r="D144" s="25"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G144" s="17" t="s">
+      <c r="G144" s="14" t="s">
         <v>164</v>
       </c>
       <c r="H144" s="5" t="s">
@@ -5244,39 +5243,39 @@
       <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="34"/>
-      <c r="B145" s="35"/>
-      <c r="C145" s="35"/>
-      <c r="D145" s="51"/>
-      <c r="E145" s="51"/>
-      <c r="F145" s="52"/>
-      <c r="G145" s="52"/>
-      <c r="H145" s="52"/>
-      <c r="I145" s="35"/>
+      <c r="A145" s="28"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="45"/>
+      <c r="E145" s="45"/>
+      <c r="F145" s="46"/>
+      <c r="G145" s="46"/>
+      <c r="H145" s="46"/>
+      <c r="I145" s="29"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="34"/>
-      <c r="B146" s="35"/>
-      <c r="C146" s="35"/>
-      <c r="D146" s="51"/>
-      <c r="E146" s="51"/>
-      <c r="F146" s="52"/>
-      <c r="G146" s="52"/>
-      <c r="H146" s="52"/>
-      <c r="I146" s="35"/>
+      <c r="A146" s="28"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="45"/>
+      <c r="E146" s="45"/>
+      <c r="F146" s="46"/>
+      <c r="G146" s="46"/>
+      <c r="H146" s="46"/>
+      <c r="I146" s="29"/>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="18">
+      <c r="A149" s="15">
         <v>1</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C149" s="7"/>
-      <c r="D149" s="31" t="s">
+      <c r="D149" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E149" s="31" t="s">
+      <c r="E149" s="25" t="s">
         <v>126</v>
       </c>
       <c r="F149" s="5" t="s">
@@ -5293,23 +5292,23 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="18">
-        <v>2</v>
-      </c>
-      <c r="B150" s="16" t="s">
+      <c r="A150" s="15">
+        <v>2</v>
+      </c>
+      <c r="B150" s="13" t="s">
         <v>236</v>
       </c>
       <c r="C150" s="7"/>
-      <c r="D150" s="32" t="s">
+      <c r="D150" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="E150" s="32" t="s">
+      <c r="E150" s="26" t="s">
         <v>232</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G150" s="19" t="s">
+      <c r="G150" s="16" t="s">
         <v>121</v>
       </c>
       <c r="H150" s="5" t="s">
@@ -5320,23 +5319,23 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="18">
+      <c r="A151" s="15">
         <v>3</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C151" s="7"/>
-      <c r="D151" s="31" t="s">
+      <c r="D151" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E151" s="31" t="s">
+      <c r="E151" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G151" s="20" t="s">
+      <c r="G151" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H151" s="5" t="s">
@@ -5347,23 +5346,23 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="18">
+      <c r="A152" s="15">
         <v>4</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C152" s="7"/>
-      <c r="D152" s="31" t="s">
+      <c r="D152" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E152" s="31" t="s">
+      <c r="E152" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G152" s="20" t="s">
+      <c r="G152" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H152" s="5" t="s">
@@ -5374,23 +5373,23 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="18">
+      <c r="A153" s="15">
         <v>5</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C153" s="7"/>
-      <c r="D153" s="31" t="s">
+      <c r="D153" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E153" s="31" t="s">
+      <c r="E153" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G153" s="20" t="s">
+      <c r="G153" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H153" s="5" t="s">
@@ -5401,23 +5400,23 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="18">
+      <c r="A154" s="15">
         <v>6</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C154" s="7"/>
-      <c r="D154" s="31" t="s">
+      <c r="D154" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E154" s="31" t="s">
+      <c r="E154" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G154" s="20" t="s">
+      <c r="G154" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H154" s="5" t="s">
@@ -5428,23 +5427,23 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="18">
+      <c r="A155" s="15">
         <v>7</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C155" s="7"/>
-      <c r="D155" s="31" t="s">
+      <c r="D155" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E155" s="31" t="s">
+      <c r="E155" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G155" s="20" t="s">
+      <c r="G155" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H155" s="5" t="s">
@@ -5455,23 +5454,23 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="18">
+      <c r="A156" s="15">
         <v>8</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C156" s="7"/>
-      <c r="D156" s="31" t="s">
+      <c r="D156" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E156" s="31" t="s">
+      <c r="E156" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G156" s="20" t="s">
+      <c r="G156" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H156" s="5" t="s">
@@ -5482,23 +5481,23 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="18">
+      <c r="A157" s="15">
         <v>9</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C157" s="7"/>
-      <c r="D157" s="31" t="s">
+      <c r="D157" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E157" s="31" t="s">
+      <c r="E157" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G157" s="20" t="s">
+      <c r="G157" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H157" s="5" t="s">
@@ -5509,23 +5508,23 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="18">
+      <c r="A158" s="15">
         <v>10</v>
       </c>
-      <c r="B158" s="16" t="s">
+      <c r="B158" s="13" t="s">
         <v>237</v>
       </c>
       <c r="C158" s="7"/>
-      <c r="D158" s="32" t="s">
+      <c r="D158" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="E158" s="33" t="s">
+      <c r="E158" s="27" t="s">
         <v>231</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G158" s="20" t="s">
+      <c r="G158" s="17" t="s">
         <v>122</v>
       </c>
       <c r="H158" s="5" t="s">
@@ -5536,7 +5535,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="18">
+      <c r="A159" s="15">
         <v>11</v>
       </c>
       <c r="B159" s="6" t="s">
@@ -5545,16 +5544,16 @@
       <c r="C159" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D159" s="31" t="s">
+      <c r="D159" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E159" s="31" t="s">
+      <c r="E159" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G159" s="20" t="s">
+      <c r="G159" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H159" s="5" t="s">
@@ -5565,26 +5564,26 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="34"/>
-      <c r="B160" s="35"/>
-      <c r="C160" s="35"/>
-      <c r="D160" s="51"/>
-      <c r="E160" s="51"/>
-      <c r="F160" s="52"/>
-      <c r="G160" s="52"/>
-      <c r="H160" s="52"/>
-      <c r="I160" s="35"/>
+      <c r="A160" s="28"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="29"/>
+      <c r="D160" s="45"/>
+      <c r="E160" s="45"/>
+      <c r="F160" s="46"/>
+      <c r="G160" s="46"/>
+      <c r="H160" s="46"/>
+      <c r="I160" s="29"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="34"/>
-      <c r="B161" s="35"/>
-      <c r="C161" s="35"/>
-      <c r="D161" s="51"/>
-      <c r="E161" s="51"/>
-      <c r="F161" s="52"/>
-      <c r="G161" s="52"/>
-      <c r="H161" s="52"/>
-      <c r="I161" s="35"/>
+      <c r="A161" s="28"/>
+      <c r="B161" s="29"/>
+      <c r="C161" s="29"/>
+      <c r="D161" s="45"/>
+      <c r="E161" s="45"/>
+      <c r="F161" s="46"/>
+      <c r="G161" s="46"/>
+      <c r="H161" s="46"/>
+      <c r="I161" s="29"/>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="5">
@@ -5594,8 +5593,8 @@
       <c r="C164" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D164" s="27"/>
-      <c r="E164" s="28"/>
+      <c r="D164" s="22"/>
+      <c r="E164" s="23"/>
       <c r="F164" s="5" t="s">
         <v>244</v>
       </c>
@@ -5613,8 +5612,8 @@
       <c r="A165" s="5"/>
       <c r="B165" s="6"/>
       <c r="C165" s="7"/>
-      <c r="D165" s="27"/>
-      <c r="E165" s="28"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="23"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
@@ -5628,8 +5627,8 @@
       <c r="C166" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D166" s="27"/>
-      <c r="E166" s="28"/>
+      <c r="D166" s="22"/>
+      <c r="E166" s="23"/>
       <c r="F166" s="5" t="s">
         <v>148</v>
       </c>
@@ -5651,8 +5650,8 @@
       <c r="C167" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D167" s="27"/>
-      <c r="E167" s="28"/>
+      <c r="D167" s="22"/>
+      <c r="E167" s="23"/>
       <c r="F167" s="5" t="s">
         <v>148</v>
       </c>
@@ -5662,48 +5661,66 @@
       <c r="H167" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="I167" s="72" t="s">
+      <c r="I167" s="68" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="5"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="27"/>
-      <c r="E168" s="28"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="6"/>
+      <c r="A168" s="5">
+        <v>1</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D168" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E168" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I168" s="6" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="5">
         <v>1</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>256</v>
+        <v>133</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D169" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E169" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D169" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E169" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>264</v>
+        <v>4</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H169" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="I169" s="4" t="s">
-        <v>221</v>
+        <v>108</v>
+      </c>
+      <c r="H169" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I169" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5711,28 +5728,28 @@
         <v>1</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D170" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D170" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E170" s="31" t="s">
+      <c r="E170" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H170" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="I170" s="13" t="s">
-        <v>154</v>
+        <v>111</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I170" s="12" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5740,245 +5757,212 @@
         <v>1</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D171" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E171" s="31" t="s">
-        <v>2</v>
+        <v>95</v>
+      </c>
+      <c r="D171" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E171" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H171" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I171" s="13" t="s">
-        <v>155</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="H171" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I171" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="28"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="45"/>
+      <c r="E172" s="45"/>
+      <c r="F172" s="46"/>
+      <c r="G172" s="46"/>
+      <c r="H172" s="46"/>
+      <c r="I172" s="29"/>
     </row>
     <row r="173" spans="1:9">
-      <c r="B173" s="21"/>
-    </row>
-    <row r="175" spans="1:9">
-      <c r="B175" s="21"/>
+      <c r="A173" s="28"/>
+      <c r="B173" s="29"/>
+      <c r="C173" s="29"/>
+      <c r="D173" s="45"/>
+      <c r="E173" s="45"/>
+      <c r="F173" s="46"/>
+      <c r="G173" s="46"/>
+      <c r="H173" s="46"/>
+      <c r="I173" s="29"/>
     </row>
     <row r="176" spans="1:9">
-      <c r="B176" s="21"/>
-    </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="11"/>
-      <c r="C178" s="10"/>
-      <c r="D178" s="30"/>
-      <c r="E178" s="30"/>
-      <c r="F178" s="11"/>
-      <c r="G178" s="11"/>
-      <c r="H178" s="23"/>
-      <c r="I178" s="14"/>
-    </row>
-    <row r="181" spans="1:9">
-      <c r="A181" s="11"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="30"/>
-      <c r="E181" s="30"/>
-      <c r="F181" s="11"/>
-      <c r="G181" s="11"/>
-      <c r="H181" s="11"/>
-      <c r="I181" s="14"/>
-    </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="5">
+      <c r="A176" s="5">
         <v>1</v>
       </c>
-      <c r="B186" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D186" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E186" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G186" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H186" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I186" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="5">
+      <c r="B176" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C176" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D176" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="E176" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I176" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="60"/>
+      <c r="B177" s="61"/>
+      <c r="C177" s="62"/>
+      <c r="D177" s="63"/>
+      <c r="E177" s="63"/>
+      <c r="F177" s="64"/>
+      <c r="G177" s="64"/>
+      <c r="H177" s="60"/>
+      <c r="I177" s="61"/>
+    </row>
+    <row r="178" spans="1:9" ht="20" customHeight="1">
+      <c r="A178" s="5">
         <v>1</v>
       </c>
-      <c r="B189" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="C189" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="D189" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="E189" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="F189" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="H189" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I189" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" s="67"/>
-      <c r="B190" s="68"/>
-      <c r="C190" s="69"/>
-      <c r="D190" s="70"/>
-      <c r="E190" s="70"/>
-      <c r="F190" s="71"/>
-      <c r="G190" s="71"/>
-      <c r="H190" s="67"/>
-      <c r="I190" s="68"/>
-    </row>
-    <row r="191" spans="1:9" ht="20" customHeight="1">
-      <c r="A191" s="5">
-        <v>1</v>
-      </c>
-      <c r="B191" s="6" t="s">
+      <c r="B178" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C178" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D191" s="28" t="s">
+      <c r="D178" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E191" s="28" t="s">
+      <c r="E178" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="F191" s="5" t="s">
+      <c r="F178" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G191" s="5" t="s">
+      <c r="G178" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="H191" s="5" t="s">
+      <c r="H178" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I191" s="6" t="s">
+      <c r="I178" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="20" customHeight="1">
-      <c r="A192" s="5">
-        <v>2</v>
-      </c>
-      <c r="B192" s="6" t="s">
+    <row r="179" spans="1:9" ht="20" customHeight="1">
+      <c r="A179" s="5">
+        <v>2</v>
+      </c>
+      <c r="B179" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D192" s="28" t="s">
+      <c r="D179" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E192" s="28" t="s">
+      <c r="E179" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="F192" s="5" t="s">
+      <c r="F179" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G192" s="5" t="s">
+      <c r="G179" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="H192" s="5" t="s">
+      <c r="H179" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I192" s="6" t="s">
+      <c r="I179" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="20" customHeight="1">
-      <c r="A193" s="5">
-        <v>3</v>
-      </c>
-      <c r="B193" s="6" t="s">
+    <row r="180" spans="1:9" ht="20" customHeight="1">
+      <c r="A180" s="5">
+        <v>3</v>
+      </c>
+      <c r="B180" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D193" s="28" t="s">
+      <c r="D180" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E193" s="28" t="s">
+      <c r="E180" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="F193" s="5" t="s">
+      <c r="F180" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G193" s="5" t="s">
+      <c r="G180" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="H193" s="5" t="s">
+      <c r="H180" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I193" s="6" t="s">
+      <c r="I180" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="20" customHeight="1">
-      <c r="A194" s="5">
-        <v>4</v>
-      </c>
-      <c r="B194" s="6" t="s">
+    <row r="181" spans="1:9" ht="20" customHeight="1">
+      <c r="A181" s="5">
+        <v>4</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D194" s="28" t="s">
+      <c r="D181" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E194" s="28" t="s">
+      <c r="E181" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="F194" s="5" t="s">
+      <c r="F181" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G194" s="5" t="s">
+      <c r="G181" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="H194" s="5" t="s">
+      <c r="H181" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I194" s="6" t="s">
+      <c r="I181" s="6" t="s">
         <v>222</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C99:E99"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I89" r:id="rId1" location="abs/2022ApJ...925...97P/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2022ApJ...925...97P/abstract" xr:uid="{B3413BC8-017C-6749-82D9-78DBC260D435}"/>
@@ -5986,12 +5970,12 @@
     <hyperlink ref="I93" r:id="rId3" location="abs/2020ApJ...892..105A/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2020ApJ...892..105A/abstract" xr:uid="{B8162F2C-7D6F-B443-A73D-84E9811957B8}"/>
     <hyperlink ref="I97" r:id="rId4" location="abs/2014ApJ...797...19R/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2014ApJ...797...19R/abstract" xr:uid="{2B58C45C-5484-4146-9A74-7FF196586F26}"/>
     <hyperlink ref="I98" r:id="rId5" location="abs/2014ApJ...797...19R/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2014ApJ...797...19R/abstract" xr:uid="{5389C1CD-1113-EA49-906B-3FC89CC49F88}"/>
-    <hyperlink ref="I170" r:id="rId6" location="abs/2021ApJ...913..146M/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2021ApJ...913..146M/abstract" xr:uid="{09A28CA7-2A29-0E4B-BFBE-225FA2C09C86}"/>
-    <hyperlink ref="I171" r:id="rId7" location="abs/2014MNRAS.445.4316C/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2014MNRAS.445.4316C/abstract" xr:uid="{42A0F087-88CB-CA4C-96C9-92A54482E077}"/>
-    <hyperlink ref="I186" r:id="rId8" location="abs/2019MNRAS.484L.104P/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2019MNRAS.484L.104P/abstract" xr:uid="{04F1DF9F-F0D7-B941-8AFD-29833CE7A70B}"/>
+    <hyperlink ref="I169" r:id="rId6" location="abs/2021ApJ...913..146M/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2021ApJ...913..146M/abstract" xr:uid="{09A28CA7-2A29-0E4B-BFBE-225FA2C09C86}"/>
+    <hyperlink ref="I170" r:id="rId7" location="abs/2014MNRAS.445.4316C/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2014MNRAS.445.4316C/abstract" xr:uid="{42A0F087-88CB-CA4C-96C9-92A54482E077}"/>
+    <hyperlink ref="I171" r:id="rId8" location="abs/2019MNRAS.484L.104P/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2019MNRAS.484L.104P/abstract" xr:uid="{04F1DF9F-F0D7-B941-8AFD-29833CE7A70B}"/>
     <hyperlink ref="I105" r:id="rId9" location="abs/2011MNRAS.414.2674G/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2011MNRAS.414.2674G/abstract" xr:uid="{7F6EC028-E80D-BD4B-AF2D-B2549860662B}"/>
     <hyperlink ref="I107" r:id="rId10" location="abs/2011MNRAS.414.2674G/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2011MNRAS.414.2674G/abstract" xr:uid="{50E47CE7-3A43-E64A-A4D5-4ED0A38C426C}"/>
-    <hyperlink ref="I189" r:id="rId11" location="abs/2013MNRAS.432L..66G/abstract" display="https://ui.adsabs.harvard.edu/abs/2012MNRAS.425.1371G - abs/2013MNRAS.432L..66G/abstract" xr:uid="{668C835E-9913-6D49-9B5C-0FA807C7E64F}"/>
+    <hyperlink ref="I176" r:id="rId11" location="abs/2013MNRAS.432L..66G/abstract" display="https://ui.adsabs.harvard.edu/abs/2012MNRAS.425.1371G - abs/2013MNRAS.432L..66G/abstract" xr:uid="{668C835E-9913-6D49-9B5C-0FA807C7E64F}"/>
     <hyperlink ref="I96" r:id="rId12" location="abs/2014ApJ...797...19R/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2014ApJ...797...19R/abstract" xr:uid="{FD6444BB-00E3-7B44-9F94-469B283F460F}"/>
     <hyperlink ref="I167" r:id="rId13" location="abs/2019RNAAS...3...92P/abstract" display="https://ui.adsabs.harvard.edu/abs/2019RNAAS...3...92P - abs/2019RNAAS...3...92P/abstract" xr:uid="{48BF7E70-B8EB-1A49-A543-675BF717DD20}"/>
   </hyperlinks>

--- a/CLB_Catalog.xlsx
+++ b/CLB_Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksj/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE2905B-34CB-964B-9427-6C1B3ED30146}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EC03D3-3043-714D-8960-843AEDEFB093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="500" windowWidth="29460" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3620" yWindow="500" windowWidth="29460" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FanXL_Low" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="297">
   <si>
     <t>reference</t>
   </si>
@@ -409,9 +409,6 @@
     <t>4FGL J1037.4-2933</t>
   </si>
   <si>
-    <t>PKS 1034-293</t>
-  </si>
-  <si>
     <t>FGL_Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -473,10 +470,6 @@
   </si>
   <si>
     <t xml:space="preserve">SDSS J083223.22+491321.0^a  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a^This blazar did not transition, but is likely to be a transition blazar</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1049,12 +1042,138 @@
     <t>1+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>1FGL J0058.0+3314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1FGL J1000.9+2915 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1FGL J1607.1+1552 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1FGL J0923.2+4121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1FGL J2031.5+1219 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1FGL J2243.4+4104 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1FGL J0430.4-2509 </t>
+  </si>
+  <si>
+    <t>1FGL J0516.7-6207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1FGL J1058.4+0134 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1FGL J2236.2+2828 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1FGL J2315.9-5014 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nominal_FSRQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> broad_lines_BLL</t>
+  </si>
+  <si>
+    <r>
+      <t>doi:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">10.1088/0004-637X/748/1/49 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>doi:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">10.1088/0004-637X/748/1/49 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shaw et al. 2012</t>
+  </si>
+  <si>
+    <t>Shaw et al. 2012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4FGL J0058.4+3315</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>4FGL J0923.5+4125</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>4FGL J1001.1+2911</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>4FGL J1607.0+1550</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>4FGL J2032.0+1219</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>4FGL J2244.2+4057</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>4FGL J0516.7-6207</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>4FGL J1058.4+0133</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>4FGL J2236.3+2828</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4FGL J2315.6-5018</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>4FGL J0430.3-2507</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a^likely to be a transition blazar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1157,6 +1276,31 @@
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1350,7 +1494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1546,16 +1690,25 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1834,11 +1987,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B177" sqref="B177"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1849,37 +2002,37 @@
     <col min="4" max="4" width="14.33203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" style="21" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="1" customWidth="1"/>
-    <col min="9" max="10" width="28.83203125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="4"/>
+    <col min="9" max="9" width="28.83203125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="58" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="D1" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1926,7 +2079,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1951,7 +2104,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1976,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2001,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2026,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2051,7 +2204,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2076,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2101,7 +2254,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2126,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2151,7 +2304,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2176,7 +2329,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2201,7 +2354,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2226,7 +2379,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2251,7 +2404,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2276,7 +2429,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2301,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2326,7 +2479,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2351,7 +2504,7 @@
         <v>5</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2376,7 +2529,7 @@
         <v>5</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2401,7 +2554,7 @@
         <v>5</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2426,7 +2579,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2451,7 +2604,7 @@
         <v>5</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2476,7 +2629,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2501,7 +2654,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2526,7 +2679,7 @@
         <v>5</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2551,7 +2704,7 @@
         <v>5</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2576,7 +2729,7 @@
         <v>5</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2601,7 +2754,7 @@
         <v>5</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2626,7 +2779,7 @@
         <v>5</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2651,7 +2804,7 @@
         <v>5</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2676,7 +2829,7 @@
         <v>5</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2701,7 +2854,7 @@
         <v>5</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2726,7 +2879,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2770,10 +2923,10 @@
         <v>4</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2798,7 +2951,7 @@
         <v>39</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2823,7 +2976,7 @@
         <v>39</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2848,7 +3001,7 @@
         <v>39</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2873,7 +3026,7 @@
         <v>39</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2898,7 +3051,7 @@
         <v>39</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2923,7 +3076,7 @@
         <v>39</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2948,7 +3101,7 @@
         <v>39</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2973,7 +3126,7 @@
         <v>39</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2998,7 +3151,7 @@
         <v>39</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3023,7 +3176,7 @@
         <v>39</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3048,7 +3201,7 @@
         <v>39</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3073,7 +3226,7 @@
         <v>39</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3098,7 +3251,7 @@
         <v>39</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3123,7 +3276,7 @@
         <v>39</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3148,7 +3301,7 @@
         <v>39</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3173,7 +3326,7 @@
         <v>39</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3198,7 +3351,7 @@
         <v>39</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3223,7 +3376,7 @@
         <v>39</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3248,7 +3401,7 @@
         <v>39</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3273,7 +3426,7 @@
         <v>39</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3298,7 +3451,7 @@
         <v>39</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3323,7 +3476,7 @@
         <v>39</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3348,7 +3501,7 @@
         <v>39</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3373,7 +3526,7 @@
         <v>39</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3398,7 +3551,7 @@
         <v>39</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3423,7 +3576,7 @@
         <v>39</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3448,7 +3601,7 @@
         <v>39</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3473,7 +3626,7 @@
         <v>39</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3498,7 +3651,7 @@
         <v>39</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3523,7 +3676,7 @@
         <v>39</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3548,7 +3701,7 @@
         <v>39</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3573,7 +3726,7 @@
         <v>39</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3598,7 +3751,7 @@
         <v>39</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3623,7 +3776,7 @@
         <v>39</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3648,7 +3801,7 @@
         <v>39</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3673,7 +3826,7 @@
         <v>39</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3698,7 +3851,7 @@
         <v>39</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3723,7 +3876,7 @@
         <v>39</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3748,7 +3901,7 @@
         <v>39</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3773,7 +3926,7 @@
         <v>39</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3798,7 +3951,7 @@
         <v>39</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3823,7 +3976,7 @@
         <v>39</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3848,7 +4001,7 @@
         <v>39</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3873,7 +4026,7 @@
         <v>39</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3898,7 +4051,7 @@
         <v>39</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3923,7 +4076,7 @@
         <v>39</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3965,7 +4118,7 @@
         <v>2</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>98</v>
@@ -3974,7 +4127,7 @@
         <v>100</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3994,7 +4147,7 @@
         <v>2</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>98</v>
@@ -4003,7 +4156,7 @@
         <v>100</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4036,7 +4189,7 @@
         <v>86</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D92" s="25" t="s">
         <v>118</v>
@@ -4045,16 +4198,16 @@
         <v>2</v>
       </c>
       <c r="F92" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4065,7 +4218,7 @@
         <v>88</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D93" s="25" t="s">
         <v>118</v>
@@ -4074,16 +4227,16 @@
         <v>2</v>
       </c>
       <c r="F93" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4094,7 +4247,7 @@
         <v>89</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D94" s="25" t="s">
         <v>118</v>
@@ -4103,16 +4256,16 @@
         <v>2</v>
       </c>
       <c r="F94" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4123,7 +4276,7 @@
         <v>90</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D95" s="25" t="s">
         <v>94</v>
@@ -4132,16 +4285,16 @@
         <v>2</v>
       </c>
       <c r="F95" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4152,7 +4305,7 @@
         <v>91</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D96" s="25" t="s">
         <v>94</v>
@@ -4161,16 +4314,16 @@
         <v>2</v>
       </c>
       <c r="F96" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G96" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4179,21 +4332,21 @@
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D97" s="23"/>
       <c r="E97" s="23"/>
       <c r="F97" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G97" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4202,29 +4355,29 @@
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D98" s="23"/>
       <c r="E98" s="23"/>
       <c r="F98" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="51" customHeight="1">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="D99" s="66"/>
-      <c r="E99" s="67"/>
+      <c r="C99" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="D99" s="70"/>
+      <c r="E99" s="71"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
@@ -4257,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="25" t="s">
@@ -4267,16 +4420,16 @@
         <v>2</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4284,7 +4437,7 @@
         <v>2</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="25" t="s">
@@ -4294,16 +4447,16 @@
         <v>2</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4311,7 +4464,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="25" t="s">
@@ -4321,16 +4474,16 @@
         <v>2</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4338,7 +4491,7 @@
         <v>4</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="25" t="s">
@@ -4348,16 +4501,16 @@
         <v>2</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4365,7 +4518,7 @@
         <v>5</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="25" t="s">
@@ -4375,16 +4528,16 @@
         <v>2</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4392,7 +4545,7 @@
         <v>6</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="25" t="s">
@@ -4402,16 +4555,16 @@
         <v>2</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4438,25 +4591,25 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E110" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F110" s="14" t="s">
         <v>94</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>105</v>
@@ -4466,7 +4619,7 @@
     <row r="111" spans="1:9">
       <c r="B111" s="6"/>
       <c r="C111" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E111" s="48"/>
       <c r="F111" s="14"/>
@@ -4476,16 +4629,16 @@
     </row>
     <row r="112" spans="1:9">
       <c r="B112" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E112" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="14"/>
@@ -4494,13 +4647,13 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D113" s="25" t="s">
         <v>94</v>
@@ -4512,7 +4665,7 @@
         <v>94</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>105</v>
@@ -4521,7 +4674,7 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>103</v>
@@ -4536,19 +4689,19 @@
         <v>2</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>107</v>
@@ -4563,10 +4716,10 @@
         <v>2</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>105</v>
@@ -4600,25 +4753,25 @@
         <v>1</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F118" s="14" t="s">
         <v>94</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I118" s="6"/>
     </row>
@@ -4627,7 +4780,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>106</v>
@@ -4642,7 +4795,7 @@
         <v>94</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>105</v>
@@ -4654,10 +4807,10 @@
         <v>5</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>94</v>
@@ -4666,10 +4819,10 @@
         <v>126</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>105</v>
@@ -4681,10 +4834,10 @@
         <v>6</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>94</v>
@@ -4693,10 +4846,10 @@
         <v>126</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>105</v>
@@ -4708,10 +4861,10 @@
         <v>9</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>94</v>
@@ -4720,10 +4873,10 @@
         <v>126</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>105</v>
@@ -4735,10 +4888,10 @@
         <v>10</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>94</v>
@@ -4747,13 +4900,13 @@
         <v>2</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I123" s="6"/>
     </row>
@@ -4762,10 +4915,10 @@
         <v>11</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>118</v>
@@ -4774,10 +4927,10 @@
         <v>2</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>105</v>
@@ -4789,25 +4942,25 @@
         <v>13</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I125" s="6"/>
     </row>
@@ -4816,10 +4969,10 @@
         <v>15</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>118</v>
@@ -4828,10 +4981,10 @@
         <v>2</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>105</v>
@@ -4843,10 +4996,10 @@
         <v>17</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>118</v>
@@ -4855,10 +5008,10 @@
         <v>2</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>105</v>
@@ -4870,10 +5023,10 @@
         <v>18</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>94</v>
@@ -4882,10 +5035,10 @@
         <v>126</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>105</v>
@@ -4897,10 +5050,10 @@
         <v>20</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>94</v>
@@ -4909,10 +5062,10 @@
         <v>93</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>105</v>
@@ -4924,22 +5077,22 @@
         <v>21</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>105</v>
@@ -4951,10 +5104,10 @@
         <v>23</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>118</v>
@@ -4963,10 +5116,10 @@
         <v>2</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>105</v>
@@ -4978,10 +5131,10 @@
         <v>24</v>
       </c>
       <c r="B132" s="49" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C132" s="50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D132" s="51" t="s">
         <v>94</v>
@@ -4990,10 +5143,10 @@
         <v>93</v>
       </c>
       <c r="F132" s="52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G132" s="52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H132" s="53" t="s">
         <v>105</v>
@@ -5017,15 +5170,15 @@
       </c>
       <c r="B134" s="54"/>
       <c r="C134" s="55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D134" s="56"/>
       <c r="E134" s="57"/>
       <c r="F134" s="58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G134" s="58" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H134" s="59" t="s">
         <v>105</v>
@@ -5038,18 +5191,18 @@
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D135" s="25"/>
       <c r="E135" s="23"/>
       <c r="F135" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I135" s="6"/>
     </row>
@@ -5059,18 +5212,18 @@
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D136" s="25"/>
       <c r="E136" s="23"/>
       <c r="F136" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I136" s="6"/>
     </row>
@@ -5080,15 +5233,15 @@
       </c>
       <c r="B137" s="6"/>
       <c r="C137" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D137" s="25"/>
       <c r="E137" s="23"/>
       <c r="F137" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>105</v>
@@ -5101,15 +5254,15 @@
       </c>
       <c r="B138" s="6"/>
       <c r="C138" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D138" s="25"/>
       <c r="E138" s="23"/>
       <c r="F138" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H138" s="5" t="s">
         <v>105</v>
@@ -5122,15 +5275,15 @@
       </c>
       <c r="B139" s="6"/>
       <c r="C139" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D139" s="25"/>
       <c r="E139" s="23"/>
       <c r="F139" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>105</v>
@@ -5143,18 +5296,18 @@
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D140" s="25"/>
       <c r="E140" s="23"/>
       <c r="F140" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I140" s="6"/>
     </row>
@@ -5164,18 +5317,18 @@
       </c>
       <c r="B141" s="6"/>
       <c r="C141" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D141" s="25"/>
       <c r="E141" s="23"/>
       <c r="F141" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I141" s="6"/>
     </row>
@@ -5185,18 +5338,18 @@
       </c>
       <c r="B142" s="6"/>
       <c r="C142" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D142" s="25"/>
       <c r="E142" s="23"/>
       <c r="F142" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I142" s="6"/>
     </row>
@@ -5206,18 +5359,18 @@
       </c>
       <c r="B143" s="6"/>
       <c r="C143" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D143" s="25"/>
       <c r="E143" s="23"/>
       <c r="F143" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I143" s="6"/>
     </row>
@@ -5227,15 +5380,15 @@
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D144" s="25"/>
       <c r="E144" s="23"/>
       <c r="F144" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>105</v>
@@ -5279,16 +5432,16 @@
         <v>126</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5296,26 +5449,26 @@
         <v>2</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G150" s="16" t="s">
         <v>121</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5333,16 +5486,16 @@
         <v>2</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G151" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5360,16 +5513,16 @@
         <v>2</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G152" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5387,16 +5540,16 @@
         <v>2</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G153" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5414,16 +5567,16 @@
         <v>2</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G154" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5441,16 +5594,16 @@
         <v>2</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G155" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5468,16 +5621,16 @@
         <v>2</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G156" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5495,16 +5648,16 @@
         <v>2</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G157" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5512,26 +5665,26 @@
         <v>10</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E158" s="27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G158" s="17" t="s">
         <v>122</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5541,9 +5694,7 @@
       <c r="B159" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>129</v>
-      </c>
+      <c r="C159" s="7"/>
       <c r="D159" s="25" t="s">
         <v>118</v>
       </c>
@@ -5551,16 +5702,16 @@
         <v>2</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G159" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5591,15 +5742,15 @@
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D164" s="22"/>
       <c r="E164" s="23"/>
       <c r="F164" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H164" s="5" t="s">
         <v>114</v>
@@ -5625,43 +5776,43 @@
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D166" s="22"/>
       <c r="E166" s="23"/>
       <c r="F166" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B167" s="6"/>
       <c r="C167" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D167" s="22"/>
       <c r="E167" s="23"/>
       <c r="F167" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="I167" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="I167" s="65" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5670,10 +5821,10 @@
         <v>1</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D168" s="25" t="s">
         <v>94</v>
@@ -5682,16 +5833,16 @@
         <v>2</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5699,10 +5850,10 @@
         <v>1</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D169" s="25" t="s">
         <v>118</v>
@@ -5720,7 +5871,7 @@
         <v>110</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5728,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>112</v>
@@ -5749,7 +5900,7 @@
         <v>113</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5772,13 +5923,13 @@
         <v>94</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H171" s="18" t="s">
         <v>96</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5804,165 +5955,492 @@
       <c r="I173" s="29"/>
     </row>
     <row r="176" spans="1:9">
-      <c r="A176" s="5">
+      <c r="A176" s="5"/>
+      <c r="B176" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D176" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E176" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H176" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="I176" s="67" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="5"/>
+      <c r="B177" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D177" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E177" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H177" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="I177" s="67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="5"/>
+      <c r="B178" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D178" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E178" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H178" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="I178" s="67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="5"/>
+      <c r="B179" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D179" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E179" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H179" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="I179" s="67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="5"/>
+      <c r="B180" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D180" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E180" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H180" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="I180" s="67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="5"/>
+      <c r="B181" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D181" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E181" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H181" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="I181" s="67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="60"/>
+      <c r="B182" s="60"/>
+      <c r="C182" s="60"/>
+      <c r="D182" s="60"/>
+      <c r="E182" s="60"/>
+      <c r="F182" s="60"/>
+      <c r="G182" s="60"/>
+      <c r="H182" s="60"/>
+      <c r="I182" s="60"/>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="5"/>
+      <c r="B183" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D183" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E183" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H183" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="I183" s="67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="5"/>
+      <c r="B184" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D184" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E184" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H184" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="I184" s="67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="5"/>
+      <c r="B185" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D185" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E185" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H185" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="I185" s="67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="5"/>
+      <c r="B186" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D186" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E186" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H186" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="I186" s="67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="5"/>
+      <c r="B187" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D187" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E187" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H187" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="I187" s="67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="28"/>
+      <c r="B188" s="29"/>
+      <c r="C188" s="29"/>
+      <c r="D188" s="45"/>
+      <c r="E188" s="45"/>
+      <c r="F188" s="46"/>
+      <c r="G188" s="46"/>
+      <c r="H188" s="46"/>
+      <c r="I188" s="29"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="28"/>
+      <c r="B189" s="29"/>
+      <c r="C189" s="29"/>
+      <c r="D189" s="45"/>
+      <c r="E189" s="45"/>
+      <c r="F189" s="46"/>
+      <c r="G189" s="46"/>
+      <c r="H189" s="46"/>
+      <c r="I189" s="29"/>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="5">
         <v>1</v>
       </c>
-      <c r="B176" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C176" s="19" t="s">
+      <c r="B192" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D176" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="E176" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="F176" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G176" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="H176" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I176" s="12" t="s">
+      <c r="C192" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D192" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="E192" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H192" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="60"/>
-      <c r="B177" s="61"/>
-      <c r="C177" s="62"/>
-      <c r="D177" s="63"/>
-      <c r="E177" s="63"/>
-      <c r="F177" s="64"/>
-      <c r="G177" s="64"/>
-      <c r="H177" s="60"/>
-      <c r="I177" s="61"/>
-    </row>
-    <row r="178" spans="1:9" ht="20" customHeight="1">
-      <c r="A178" s="5">
+      <c r="I192" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="60"/>
+      <c r="B193" s="61"/>
+      <c r="C193" s="62"/>
+      <c r="D193" s="63"/>
+      <c r="E193" s="63"/>
+      <c r="F193" s="64"/>
+      <c r="G193" s="64"/>
+      <c r="H193" s="60"/>
+      <c r="I193" s="61"/>
+    </row>
+    <row r="194" spans="1:9" ht="20" customHeight="1">
+      <c r="A194" s="5">
         <v>1</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B194" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D194" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="E194" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="F194" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I194" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="20" customHeight="1">
+      <c r="A195" s="5">
+        <v>2</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D195" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="E195" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I195" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="20" customHeight="1">
+      <c r="A196" s="5">
+        <v>3</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D178" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="E178" s="23" t="s">
+      <c r="D196" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="E196" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="F178" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G178" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H178" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="I178" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="20" customHeight="1">
-      <c r="A179" s="5">
-        <v>2</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C179" s="2" t="s">
+      <c r="F196" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I196" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="20" customHeight="1">
+      <c r="A197" s="5">
+        <v>4</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D179" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="E179" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G179" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H179" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="I179" s="6" t="s">
+      <c r="D197" s="23" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" ht="20" customHeight="1">
-      <c r="A180" s="5">
-        <v>3</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C180" s="2" t="s">
+      <c r="E197" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H197" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D180" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="E180" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="F180" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G180" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H180" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="I180" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="20" customHeight="1">
-      <c r="A181" s="5">
-        <v>4</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D181" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="E181" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G181" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H181" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="I181" s="6" t="s">
-        <v>222</v>
+      <c r="I197" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C99:E99"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I89" r:id="rId1" location="abs/2022ApJ...925...97P/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2022ApJ...925...97P/abstract" xr:uid="{B3413BC8-017C-6749-82D9-78DBC260D435}"/>
@@ -5975,7 +6453,7 @@
     <hyperlink ref="I171" r:id="rId8" location="abs/2019MNRAS.484L.104P/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2019MNRAS.484L.104P/abstract" xr:uid="{04F1DF9F-F0D7-B941-8AFD-29833CE7A70B}"/>
     <hyperlink ref="I105" r:id="rId9" location="abs/2011MNRAS.414.2674G/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2011MNRAS.414.2674G/abstract" xr:uid="{7F6EC028-E80D-BD4B-AF2D-B2549860662B}"/>
     <hyperlink ref="I107" r:id="rId10" location="abs/2011MNRAS.414.2674G/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2011MNRAS.414.2674G/abstract" xr:uid="{50E47CE7-3A43-E64A-A4D5-4ED0A38C426C}"/>
-    <hyperlink ref="I176" r:id="rId11" location="abs/2013MNRAS.432L..66G/abstract" display="https://ui.adsabs.harvard.edu/abs/2012MNRAS.425.1371G - abs/2013MNRAS.432L..66G/abstract" xr:uid="{668C835E-9913-6D49-9B5C-0FA807C7E64F}"/>
+    <hyperlink ref="I192" r:id="rId11" location="abs/2013MNRAS.432L..66G/abstract" display="https://ui.adsabs.harvard.edu/abs/2012MNRAS.425.1371G - abs/2013MNRAS.432L..66G/abstract" xr:uid="{668C835E-9913-6D49-9B5C-0FA807C7E64F}"/>
     <hyperlink ref="I96" r:id="rId12" location="abs/2014ApJ...797...19R/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2014ApJ...797...19R/abstract" xr:uid="{FD6444BB-00E3-7B44-9F94-469B283F460F}"/>
     <hyperlink ref="I167" r:id="rId13" location="abs/2019RNAAS...3...92P/abstract" display="https://ui.adsabs.harvard.edu/abs/2019RNAAS...3...92P - abs/2019RNAAS...3...92P/abstract" xr:uid="{48BF7E70-B8EB-1A49-A543-675BF717DD20}"/>
   </hyperlinks>

--- a/CLB_Catalog.xlsx
+++ b/CLB_Catalog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksj/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksj/Desktop/A22L_CLB_catlog/_CL_blazar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EC03D3-3043-714D-8960-843AEDEFB093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B85CDE-DBD7-0B43-84CC-F0AC1198C638}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3620" yWindow="500" windowWidth="29460" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="301">
   <si>
     <t>reference</t>
   </si>
@@ -1167,6 +1167,21 @@
   <si>
     <t>a^likely to be a transition blazar</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4FGL J2151.8-3027</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PKS 2149-306</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009A&amp;A...496..423B</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1709,6 +1724,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1987,4476 +2005,5115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I197"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="108" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L167" sqref="L167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.83203125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.83203125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="58" customHeight="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="58" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="30"/>
-      <c r="B2" s="40"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30"/>
       <c r="C2" s="40"/>
-      <c r="D2" s="32"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35"/>
       <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5">
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>3</v>
+      <c r="D4" s="6"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>3</v>
+      <c r="D5" s="6"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>3</v>
+      <c r="D6" s="6"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>3</v>
+      <c r="D7" s="6"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="5">
+    <row r="8" spans="1:10">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>3</v>
+      <c r="D8" s="6"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5">
+    <row r="9" spans="1:10">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>3</v>
+      <c r="D9" s="6"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5">
+    <row r="10" spans="1:10">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>3</v>
+      <c r="D10" s="6"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5">
+    <row r="11" spans="1:10">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>3</v>
+      <c r="D11" s="6"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5">
+    <row r="12" spans="1:10">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>3</v>
+      <c r="D12" s="6"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5">
+    <row r="13" spans="1:10">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>3</v>
+      <c r="D13" s="6"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="5">
+    <row r="14" spans="1:10">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>3</v>
+      <c r="D14" s="6"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="5">
+    <row r="15" spans="1:10">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>3</v>
+      <c r="D15" s="6"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="5">
+    <row r="16" spans="1:10">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>3</v>
+      <c r="D16" s="6"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="5">
+    <row r="17" spans="1:10">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>3</v>
+      <c r="D17" s="6"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="5">
+    <row r="18" spans="1:10">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>3</v>
+      <c r="D18" s="6"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="5">
+    <row r="19" spans="1:10">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>3</v>
+      <c r="D19" s="6"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="5">
+    <row r="20" spans="1:10">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>3</v>
+      <c r="D20" s="6"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="5">
+    <row r="21" spans="1:10">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>3</v>
+      <c r="D21" s="6"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="5">
+    <row r="22" spans="1:10">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>3</v>
+      <c r="D22" s="6"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="J22" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="5">
+    <row r="23" spans="1:10">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>3</v>
+      <c r="D23" s="6"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="5">
+    <row r="24" spans="1:10">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
         <v>21</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>3</v>
+      <c r="D24" s="6"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="5">
+    <row r="25" spans="1:10">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>3</v>
+      <c r="D25" s="6"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="J25" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="5">
+    <row r="26" spans="1:10">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
         <v>23</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>3</v>
+      <c r="D26" s="6"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="5">
+    <row r="27" spans="1:10">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
         <v>24</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>3</v>
+      <c r="D27" s="6"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="5">
+    <row r="28" spans="1:10">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
         <v>25</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>3</v>
+      <c r="D28" s="6"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="5">
+    <row r="29" spans="1:10">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
         <v>26</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>3</v>
+      <c r="D29" s="6"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="5">
+    <row r="30" spans="1:10">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
         <v>27</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>3</v>
+      <c r="D30" s="6"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="J30" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="5">
+    <row r="31" spans="1:10">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
         <v>28</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>3</v>
+      <c r="D31" s="6"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="J31" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="5">
+    <row r="32" spans="1:10">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
         <v>29</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>3</v>
+      <c r="D32" s="6"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="J32" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="5">
+    <row r="33" spans="1:10">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
         <v>30</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>3</v>
+      <c r="D33" s="6"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="J33" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="5">
+    <row r="34" spans="1:10">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5">
         <v>31</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>3</v>
+      <c r="D34" s="6"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="5">
+    <row r="35" spans="1:10">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
         <v>32</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>3</v>
+      <c r="D35" s="6"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="J35" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="5">
+    <row r="36" spans="1:10">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
         <v>33</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>3</v>
+      <c r="D36" s="6"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="J36" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
+    <row r="37" spans="1:10">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="30"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="35"/>
       <c r="C38" s="36"/>
-      <c r="D38" s="37"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="37"/>
-      <c r="F38" s="38"/>
+      <c r="F38" s="37"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="5">
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5">
         <v>1</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>3</v>
+      <c r="D39" s="9"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="J39" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="5">
-        <v>2</v>
-      </c>
-      <c r="B40" s="6" t="s">
+    <row r="40" spans="1:10">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>3</v>
+      <c r="D40" s="9"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="J40" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="5">
-        <v>3</v>
-      </c>
-      <c r="B41" s="6" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>3</v>
+      <c r="D41" s="9"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="J41" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="5">
-        <v>4</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="1:10">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5">
+        <v>4</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>3</v>
+      <c r="D42" s="9"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="J42" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="5">
+    <row r="43" spans="1:10">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5">
         <v>5</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>3</v>
+      <c r="D43" s="9"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="5">
+    <row r="44" spans="1:10">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5">
         <v>6</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>3</v>
+      <c r="D44" s="9"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="J44" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="5">
+    <row r="45" spans="1:10">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5">
         <v>7</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>3</v>
+      <c r="D45" s="9"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="J45" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="5">
+    <row r="46" spans="1:10">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5">
         <v>8</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>3</v>
+      <c r="D46" s="9"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="J46" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="5">
+    <row r="47" spans="1:10">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5">
         <v>9</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>3</v>
+      <c r="D47" s="9"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="J47" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="5">
+    <row r="48" spans="1:10">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5">
         <v>10</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>3</v>
+      <c r="D48" s="9"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="J48" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="5">
+    <row r="49" spans="1:10">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5">
         <v>11</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>3</v>
+      <c r="D49" s="9"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="J49" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="5">
+    <row r="50" spans="1:10">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5">
         <v>12</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>3</v>
+      <c r="D50" s="9"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="J50" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="5">
+    <row r="51" spans="1:10">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5">
         <v>13</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>3</v>
+      <c r="D51" s="9"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="J51" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="5">
+    <row r="52" spans="1:10">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5">
         <v>14</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>3</v>
+      <c r="D52" s="9"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="J52" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="5">
+    <row r="53" spans="1:10">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5">
         <v>15</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>3</v>
+      <c r="D53" s="9"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="J53" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="5">
+    <row r="54" spans="1:10">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5">
         <v>16</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>3</v>
+      <c r="D54" s="9"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="J54" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="5">
+    <row r="55" spans="1:10">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5">
         <v>17</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>3</v>
+      <c r="D55" s="9"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="J55" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="5">
+    <row r="56" spans="1:10">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5">
         <v>18</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>3</v>
+      <c r="D56" s="9"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="J56" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="5">
+    <row r="57" spans="1:10">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5">
         <v>19</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>3</v>
+      <c r="D57" s="9"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="J57" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="5">
+    <row r="58" spans="1:10">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5">
         <v>20</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>3</v>
+      <c r="D58" s="9"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="J58" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="5">
+    <row r="59" spans="1:10">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5">
         <v>21</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>3</v>
+      <c r="D59" s="9"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="J59" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="5">
+    <row r="60" spans="1:10">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5">
         <v>22</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>3</v>
+      <c r="D60" s="9"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I60" s="6" t="s">
+      <c r="J60" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="5">
+    <row r="61" spans="1:10">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5">
         <v>23</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>3</v>
+      <c r="D61" s="9"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H61" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I61" s="6" t="s">
+      <c r="J61" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="5">
+    <row r="62" spans="1:10">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5">
         <v>24</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>3</v>
+      <c r="D62" s="9"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I62" s="6" t="s">
+      <c r="J62" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="5">
+    <row r="63" spans="1:10">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5">
         <v>25</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>3</v>
+      <c r="D63" s="9"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I63" s="6" t="s">
+      <c r="J63" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="5">
+    <row r="64" spans="1:10">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5">
         <v>26</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>3</v>
+      <c r="D64" s="9"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I64" s="6" t="s">
+      <c r="J64" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="5">
+    <row r="65" spans="1:10">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5">
         <v>27</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>3</v>
+      <c r="D65" s="9"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="J65" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="5">
+    <row r="66" spans="1:10">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5">
         <v>28</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>3</v>
+      <c r="D66" s="9"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I66" s="6" t="s">
+      <c r="J66" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="5">
+    <row r="67" spans="1:10">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5">
         <v>29</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>3</v>
+      <c r="D67" s="9"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="J67" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="5">
+    <row r="68" spans="1:10">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5">
         <v>30</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>3</v>
+      <c r="D68" s="9"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H68" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="J68" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="5">
+    <row r="69" spans="1:10">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5">
         <v>31</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>3</v>
+      <c r="D69" s="9"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I69" s="6" t="s">
+      <c r="J69" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="5">
+    <row r="70" spans="1:10">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5">
         <v>32</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>3</v>
+      <c r="D70" s="9"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I70" s="6" t="s">
+      <c r="J70" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="5">
+    <row r="71" spans="1:10">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5">
         <v>33</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>3</v>
+      <c r="D71" s="9"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H71" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I71" s="6" t="s">
+      <c r="J71" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="5">
+    <row r="72" spans="1:10">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5">
         <v>34</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>3</v>
+      <c r="D72" s="9"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I72" s="6" t="s">
+      <c r="J72" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="5">
+    <row r="73" spans="1:10">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5">
         <v>35</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>3</v>
+      <c r="D73" s="9"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H73" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="J73" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="5">
+    <row r="74" spans="1:10">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5">
         <v>36</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>3</v>
+      <c r="D74" s="9"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="J74" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="5">
+    <row r="75" spans="1:10">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5">
         <v>37</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="C75" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>3</v>
+      <c r="D75" s="9"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H75" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I75" s="6" t="s">
+      <c r="J75" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="5">
+    <row r="76" spans="1:10">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5">
         <v>38</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>3</v>
+      <c r="D76" s="9"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="J76" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="5">
+    <row r="77" spans="1:10">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5">
         <v>39</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="C77" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>3</v>
+      <c r="D77" s="9"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I77" s="6" t="s">
+      <c r="J77" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="5">
+    <row r="78" spans="1:10">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5">
         <v>40</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>3</v>
+      <c r="D78" s="9"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H78" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I78" s="6" t="s">
+      <c r="J78" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="5">
+    <row r="79" spans="1:10">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5">
         <v>41</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>3</v>
+      <c r="D79" s="9"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H79" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I79" s="6" t="s">
+      <c r="J79" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="5">
+    <row r="80" spans="1:10">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5">
         <v>42</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>3</v>
+      <c r="D80" s="9"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H80" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I80" s="6" t="s">
+      <c r="J80" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="5">
+    <row r="81" spans="1:10">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5">
         <v>43</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>3</v>
+      <c r="D81" s="9"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H81" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="J81" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="5">
+    <row r="82" spans="1:10">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5">
         <v>44</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="C82" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>3</v>
+      <c r="D82" s="9"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I82" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I82" s="6" t="s">
+      <c r="J82" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="5">
+    <row r="83" spans="1:10">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5">
         <v>45</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>3</v>
+      <c r="D83" s="9"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I83" s="6" t="s">
+      <c r="J83" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="5">
+    <row r="84" spans="1:10">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5">
         <v>46</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>3</v>
+      <c r="D84" s="9"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I84" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I84" s="6" t="s">
+      <c r="J84" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="5">
+    <row r="85" spans="1:10">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5">
         <v>47</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>3</v>
+      <c r="D85" s="9"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H85" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I85" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I85" s="6" t="s">
+      <c r="J85" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="30"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="33"/>
+    <row r="86" spans="1:10">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="30"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="32"/>
       <c r="G86" s="33"/>
       <c r="H86" s="33"/>
-      <c r="I86" s="34"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="35"/>
-      <c r="B87" s="36"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="38"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="34"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="35"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="37"/>
       <c r="G87" s="38"/>
       <c r="H87" s="38"/>
-      <c r="I87" s="39"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="5">
+      <c r="I87" s="38"/>
+      <c r="J87" s="39"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5">
         <v>1</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="C88" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="D88" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="E88" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E88" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="H88" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="I88" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I88" s="6" t="s">
+      <c r="J88" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="5">
-        <v>2</v>
-      </c>
-      <c r="B89" s="6" t="s">
+    <row r="89" spans="1:10">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="5">
+        <v>2</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="D89" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="E89" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E89" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="H89" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="I89" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I89" s="12" t="s">
+      <c r="J89" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="28"/>
-      <c r="B90" s="29"/>
+    <row r="90" spans="1:10">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="28"/>
       <c r="C90" s="29"/>
-      <c r="D90" s="45"/>
+      <c r="D90" s="29"/>
       <c r="E90" s="45"/>
-      <c r="F90" s="46"/>
+      <c r="F90" s="45"/>
       <c r="G90" s="46"/>
       <c r="H90" s="46"/>
-      <c r="I90" s="47"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="28"/>
-      <c r="B91" s="29"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="47"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="28"/>
       <c r="C91" s="29"/>
-      <c r="D91" s="45"/>
+      <c r="D91" s="29"/>
       <c r="E91" s="45"/>
-      <c r="F91" s="46"/>
+      <c r="F91" s="45"/>
       <c r="G91" s="46"/>
       <c r="H91" s="46"/>
-      <c r="I91" s="47"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="5">
+      <c r="I91" s="46"/>
+      <c r="J91" s="47"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5">
         <v>1</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="C92" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="D92" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="E92" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E92" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="H92" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="I92" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I92" s="6" t="s">
+      <c r="J92" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="5">
-        <v>2</v>
-      </c>
-      <c r="B93" s="6" t="s">
+    <row r="93" spans="1:10">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5">
+        <v>2</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="D93" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="E93" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E93" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="H93" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="I93" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I93" s="12" t="s">
+      <c r="J93" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="5">
-        <v>3</v>
-      </c>
-      <c r="B94" s="6" t="s">
+    <row r="94" spans="1:10">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5">
+        <v>3</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="D94" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D94" s="25" t="s">
+      <c r="E94" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E94" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="H94" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="I94" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I94" s="6" t="s">
+      <c r="J94" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="5">
-        <v>4</v>
-      </c>
-      <c r="B95" s="6" t="s">
+    <row r="95" spans="1:10">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5">
+        <v>4</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="D95" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D95" s="25" t="s">
+      <c r="E95" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E95" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="H95" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="I95" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I95" s="6" t="s">
+      <c r="J95" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="5">
+    <row r="96" spans="1:10">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5">
         <v>5</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="C96" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="E96" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E96" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G96" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="H96" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="I96" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I96" s="12" t="s">
+      <c r="J96" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="5">
+    <row r="97" spans="1:10">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5">
         <v>6</v>
       </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="6"/>
+      <c r="D97" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D97" s="23"/>
       <c r="E97" s="23"/>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="23"/>
+      <c r="G97" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="H97" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="I97" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I97" s="12" t="s">
+      <c r="J97" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="5">
+    <row r="98" spans="1:10">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5">
         <v>0</v>
       </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="6"/>
+      <c r="D98" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D98" s="23"/>
       <c r="E98" s="23"/>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="23"/>
+      <c r="G98" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5" t="s">
+      <c r="H98" s="5"/>
+      <c r="I98" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I98" s="12" t="s">
+      <c r="J98" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="51" customHeight="1">
-      <c r="A99" s="5"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="69" t="s">
+    <row r="99" spans="1:10" ht="51" customHeight="1">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="69" t="s">
         <v>296</v>
       </c>
-      <c r="D99" s="70"/>
-      <c r="E99" s="71"/>
-      <c r="F99" s="5"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="71"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
-      <c r="I99" s="6"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="28"/>
-      <c r="B100" s="29"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="6"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="28"/>
       <c r="C100" s="29"/>
-      <c r="D100" s="45"/>
+      <c r="D100" s="29"/>
       <c r="E100" s="45"/>
-      <c r="F100" s="46"/>
+      <c r="F100" s="45"/>
       <c r="G100" s="46"/>
       <c r="H100" s="46"/>
-      <c r="I100" s="29"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="28"/>
-      <c r="B101" s="29"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="29"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="28"/>
       <c r="C101" s="29"/>
-      <c r="D101" s="45"/>
+      <c r="D101" s="29"/>
       <c r="E101" s="45"/>
-      <c r="F101" s="46"/>
+      <c r="F101" s="45"/>
       <c r="G101" s="46"/>
       <c r="H101" s="46"/>
-      <c r="I101" s="29"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="5">
+      <c r="I101" s="46"/>
+      <c r="J101" s="29"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" s="5">
         <v>1</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="C102" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="25" t="s">
+      <c r="D102" s="6"/>
+      <c r="E102" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E102" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G102" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="H102" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="I102" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I102" s="6" t="s">
+      <c r="J102" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="5">
-        <v>2</v>
-      </c>
-      <c r="B103" s="6" t="s">
+    <row r="103" spans="1:10">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5">
+        <v>2</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="25" t="s">
+      <c r="D103" s="6"/>
+      <c r="E103" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E103" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F103" s="5" t="s">
+      <c r="F103" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G103" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="H103" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="I103" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I103" s="12" t="s">
+      <c r="J103" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="5">
-        <v>3</v>
-      </c>
-      <c r="B104" s="6" t="s">
+    <row r="104" spans="1:10">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5">
+        <v>3</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="25" t="s">
+      <c r="D104" s="6"/>
+      <c r="E104" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E104" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="H104" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="I104" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I104" s="6" t="s">
+      <c r="J104" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="5">
-        <v>4</v>
-      </c>
-      <c r="B105" s="6" t="s">
+    <row r="105" spans="1:10">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5">
+        <v>4</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="25" t="s">
+      <c r="D105" s="6"/>
+      <c r="E105" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E105" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G105" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="H105" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="I105" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I105" s="12" t="s">
+      <c r="J105" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="5">
+    <row r="106" spans="1:10">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5">
         <v>5</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="C106" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="25" t="s">
+      <c r="D106" s="6"/>
+      <c r="E106" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E106" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G106" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="H106" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H106" s="5" t="s">
+      <c r="I106" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I106" s="6" t="s">
+      <c r="J106" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="5">
+    <row r="107" spans="1:10">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5">
         <v>6</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="C107" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="25" t="s">
+      <c r="D107" s="6"/>
+      <c r="E107" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E107" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F107" s="5" t="s">
+      <c r="F107" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G107" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G107" s="5" t="s">
+      <c r="H107" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H107" s="5" t="s">
+      <c r="I107" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I107" s="12" t="s">
+      <c r="J107" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="28"/>
-      <c r="B108" s="29"/>
+    <row r="108" spans="1:10">
+      <c r="A108" s="4">
+        <v>107</v>
+      </c>
+      <c r="B108" s="28"/>
       <c r="C108" s="29"/>
-      <c r="D108" s="45"/>
+      <c r="D108" s="29"/>
       <c r="E108" s="45"/>
-      <c r="F108" s="46"/>
+      <c r="F108" s="45"/>
       <c r="G108" s="46"/>
       <c r="H108" s="46"/>
-      <c r="I108" s="29"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="28"/>
-      <c r="B109" s="29"/>
+      <c r="I108" s="46"/>
+      <c r="J108" s="29"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="28"/>
       <c r="C109" s="29"/>
-      <c r="D109" s="45"/>
+      <c r="D109" s="29"/>
       <c r="E109" s="45"/>
-      <c r="F109" s="46"/>
+      <c r="F109" s="45"/>
       <c r="G109" s="46"/>
       <c r="H109" s="46"/>
-      <c r="I109" s="29"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="1" t="s">
+      <c r="I109" s="46"/>
+      <c r="J109" s="29"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="C110" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="D110" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D110" s="21" t="s">
+      <c r="E110" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="E110" s="48" t="s">
+      <c r="F110" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="F110" s="14" t="s">
+      <c r="G110" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G110" s="14" t="s">
+      <c r="H110" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H110" s="5" t="s">
+      <c r="I110" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I110" s="6"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="B111" s="6"/>
-      <c r="C111" s="4" t="s">
+      <c r="J110" s="6"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E111" s="48"/>
-      <c r="F111" s="14"/>
+      <c r="F111" s="48"/>
       <c r="G111" s="14"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="6"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="B112" s="6" t="s">
+      <c r="H111" s="14"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="6"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="D112" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D112" s="21" t="s">
+      <c r="E112" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="E112" s="48" t="s">
+      <c r="F112" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="F112" s="14"/>
       <c r="G112" s="14"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="6"/>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="1" t="s">
+      <c r="H112" s="14"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="6"/>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="C113" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="D113" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D113" s="25" t="s">
+      <c r="E113" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E113" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="F113" s="14" t="s">
+      <c r="F113" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G113" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G113" s="14" t="s">
+      <c r="H113" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H113" s="5" t="s">
+      <c r="I113" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I113" s="6"/>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="1" t="s">
+      <c r="J113" s="6"/>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="C114" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="D114" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D114" s="25" t="s">
+      <c r="E114" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E114" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F114" s="14" t="s">
+      <c r="F114" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G114" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="G114" s="14" t="s">
+      <c r="H114" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="I114" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I114" s="6"/>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="1" t="s">
+      <c r="J114" s="6"/>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="C115" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="D115" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D115" s="25" t="s">
+      <c r="E115" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E115" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F115" s="14" t="s">
+      <c r="F115" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G115" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G115" s="14" t="s">
+      <c r="H115" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="I115" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I115" s="6"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="28"/>
-      <c r="B116" s="29"/>
+      <c r="J115" s="6"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" s="28"/>
       <c r="C116" s="29"/>
-      <c r="D116" s="45"/>
+      <c r="D116" s="29"/>
       <c r="E116" s="45"/>
-      <c r="F116" s="46"/>
+      <c r="F116" s="45"/>
       <c r="G116" s="46"/>
       <c r="H116" s="46"/>
-      <c r="I116" s="29"/>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="28"/>
-      <c r="B117" s="29"/>
+      <c r="I116" s="46"/>
+      <c r="J116" s="29"/>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="28"/>
       <c r="C117" s="29"/>
-      <c r="D117" s="45"/>
+      <c r="D117" s="29"/>
       <c r="E117" s="45"/>
-      <c r="F117" s="46"/>
+      <c r="F117" s="45"/>
       <c r="G117" s="46"/>
       <c r="H117" s="46"/>
-      <c r="I117" s="29"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="1">
+      <c r="I117" s="46"/>
+      <c r="J117" s="29"/>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1">
         <v>1</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="C118" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="D118" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D118" s="25" t="s">
+      <c r="E118" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="E118" s="26" t="s">
+      <c r="F118" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="F118" s="14" t="s">
+      <c r="G118" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G118" s="14" t="s">
+      <c r="H118" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="I118" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I118" s="6"/>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="1">
-        <v>2</v>
-      </c>
-      <c r="B119" s="6" t="s">
+      <c r="J118" s="6"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="D119" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="E119" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E119" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F119" s="14" t="s">
+      <c r="F119" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G119" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G119" s="14" t="s">
+      <c r="H119" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="I119" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I119" s="6"/>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="1">
+      <c r="J119" s="6"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1">
         <v>5</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="C120" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="D120" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D120" s="25" t="s">
+      <c r="E120" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E120" s="25" t="s">
+      <c r="F120" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F120" s="14" t="s">
+      <c r="G120" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G120" s="14" t="s">
+      <c r="H120" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H120" s="5" t="s">
+      <c r="I120" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I120" s="6"/>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="1">
+      <c r="J120" s="6"/>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1">
         <v>6</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="C121" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="D121" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D121" s="25" t="s">
+      <c r="E121" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E121" s="25" t="s">
+      <c r="F121" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F121" s="14" t="s">
+      <c r="G121" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G121" s="14" t="s">
+      <c r="H121" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H121" s="5" t="s">
+      <c r="I121" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I121" s="6"/>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="1">
+      <c r="J121" s="6"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
         <v>9</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="C122" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="D122" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D122" s="25" t="s">
+      <c r="E122" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E122" s="25" t="s">
+      <c r="F122" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F122" s="14" t="s">
+      <c r="G122" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G122" s="14" t="s">
+      <c r="H122" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H122" s="5" t="s">
+      <c r="I122" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I122" s="6"/>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="1">
+      <c r="J122" s="6"/>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1">
         <v>10</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="C123" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="D123" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D123" s="25" t="s">
+      <c r="E123" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E123" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F123" s="14" t="s">
+      <c r="F123" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G123" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="G123" s="14" t="s">
+      <c r="H123" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="I123" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I123" s="6"/>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="1">
+      <c r="J123" s="6"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
         <v>11</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="C124" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="D124" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D124" s="25" t="s">
+      <c r="E124" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E124" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F124" s="14" t="s">
+      <c r="F124" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G124" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G124" s="14" t="s">
+      <c r="H124" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="I124" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I124" s="6"/>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="1">
+      <c r="J124" s="6"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1">
         <v>13</v>
       </c>
-      <c r="B125" s="13" t="s">
+      <c r="C125" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="D125" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D125" s="25" t="s">
+      <c r="E125" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="E125" s="26" t="s">
+      <c r="F125" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="F125" s="14" t="s">
+      <c r="G125" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G125" s="14" t="s">
+      <c r="H125" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H125" s="5" t="s">
+      <c r="I125" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I125" s="6"/>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="1">
+      <c r="J125" s="6"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
         <v>15</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="C126" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="D126" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D126" s="25" t="s">
+      <c r="E126" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E126" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F126" s="14" t="s">
+      <c r="F126" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G126" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G126" s="14" t="s">
+      <c r="H126" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H126" s="5" t="s">
+      <c r="I126" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I126" s="6"/>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="1">
+      <c r="J126" s="6"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1">
         <v>17</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="C127" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="D127" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D127" s="25" t="s">
+      <c r="E127" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E127" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F127" s="14" t="s">
+      <c r="F127" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G127" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G127" s="14" t="s">
+      <c r="H127" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H127" s="5" t="s">
+      <c r="I127" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I127" s="6"/>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="1">
+      <c r="J127" s="6"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
         <v>18</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="C128" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="D128" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D128" s="25" t="s">
+      <c r="E128" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E128" s="25" t="s">
+      <c r="F128" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F128" s="14" t="s">
+      <c r="G128" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G128" s="14" t="s">
+      <c r="H128" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H128" s="5" t="s">
+      <c r="I128" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I128" s="6"/>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="1">
+      <c r="J128" s="6"/>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
         <v>20</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="C129" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="D129" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D129" s="25" t="s">
+      <c r="E129" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E129" s="25" t="s">
+      <c r="F129" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F129" s="14" t="s">
+      <c r="G129" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="G129" s="14" t="s">
+      <c r="H129" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H129" s="5" t="s">
+      <c r="I129" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I129" s="6"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="1">
+      <c r="J129" s="6"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1">
         <v>21</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="C130" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="D130" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D130" s="26" t="s">
+      <c r="E130" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="E130" s="25" t="s">
+      <c r="F130" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="F130" s="14" t="s">
+      <c r="G130" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G130" s="14" t="s">
+      <c r="H130" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H130" s="5" t="s">
+      <c r="I130" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I130" s="6"/>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="1">
+      <c r="J130" s="6"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
         <v>23</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="C131" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="D131" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D131" s="25" t="s">
+      <c r="E131" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E131" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F131" s="14" t="s">
+      <c r="F131" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G131" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G131" s="14" t="s">
+      <c r="H131" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H131" s="5" t="s">
+      <c r="I131" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I131" s="6"/>
-    </row>
-    <row r="132" spans="1:9" ht="17" customHeight="1">
-      <c r="A132" s="1">
+      <c r="J131" s="6"/>
+    </row>
+    <row r="132" spans="1:10" ht="17" customHeight="1">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
         <v>24</v>
       </c>
-      <c r="B132" s="49" t="s">
+      <c r="C132" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="C132" s="50" t="s">
+      <c r="D132" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="D132" s="51" t="s">
+      <c r="E132" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="E132" s="51" t="s">
+      <c r="F132" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="F132" s="52" t="s">
+      <c r="G132" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G132" s="52" t="s">
+      <c r="H132" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="H132" s="53" t="s">
+      <c r="I132" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="I132" s="49"/>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="60"/>
-      <c r="B133" s="61"/>
-      <c r="C133" s="62"/>
-      <c r="D133" s="63"/>
+      <c r="J132" s="49"/>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="60"/>
+      <c r="C133" s="61"/>
+      <c r="D133" s="62"/>
       <c r="E133" s="63"/>
-      <c r="F133" s="64"/>
+      <c r="F133" s="63"/>
       <c r="G133" s="64"/>
-      <c r="H133" s="60"/>
-      <c r="I133" s="61"/>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="1">
-        <v>3</v>
-      </c>
-      <c r="B134" s="54"/>
-      <c r="C134" s="55" t="s">
+      <c r="H133" s="64"/>
+      <c r="I133" s="60"/>
+      <c r="J133" s="61"/>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
+        <v>3</v>
+      </c>
+      <c r="C134" s="54"/>
+      <c r="D134" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="D134" s="56"/>
-      <c r="E134" s="57"/>
-      <c r="F134" s="58" t="s">
+      <c r="E134" s="56"/>
+      <c r="F134" s="57"/>
+      <c r="G134" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="G134" s="58" t="s">
+      <c r="H134" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="H134" s="59" t="s">
+      <c r="I134" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="I134" s="54"/>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="1">
-        <v>4</v>
-      </c>
-      <c r="B135" s="6"/>
-      <c r="C135" s="11" t="s">
+      <c r="J134" s="54"/>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1">
+        <v>4</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D135" s="25"/>
-      <c r="E135" s="23"/>
-      <c r="F135" s="14" t="s">
+      <c r="E135" s="25"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G135" s="14" t="s">
+      <c r="H135" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H135" s="5" t="s">
+      <c r="I135" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I135" s="6"/>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="1">
+      <c r="J135" s="6"/>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
         <v>7</v>
       </c>
-      <c r="B136" s="6"/>
-      <c r="C136" s="11" t="s">
+      <c r="C136" s="6"/>
+      <c r="D136" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D136" s="25"/>
-      <c r="E136" s="23"/>
-      <c r="F136" s="14" t="s">
+      <c r="E136" s="25"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G136" s="14" t="s">
+      <c r="H136" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H136" s="5" t="s">
+      <c r="I136" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I136" s="6"/>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="1">
+      <c r="J136" s="6"/>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1">
         <v>8</v>
       </c>
-      <c r="B137" s="6"/>
-      <c r="C137" s="11" t="s">
+      <c r="C137" s="6"/>
+      <c r="D137" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D137" s="25"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="14" t="s">
+      <c r="E137" s="25"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G137" s="14" t="s">
+      <c r="H137" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H137" s="5" t="s">
+      <c r="I137" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I137" s="6"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="1">
+      <c r="J137" s="6"/>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
         <v>12</v>
       </c>
-      <c r="B138" s="6"/>
-      <c r="C138" s="11" t="s">
+      <c r="C138" s="6"/>
+      <c r="D138" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D138" s="25"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="14" t="s">
+      <c r="E138" s="25"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G138" s="14" t="s">
+      <c r="H138" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H138" s="5" t="s">
+      <c r="I138" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I138" s="6"/>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="1">
+      <c r="J138" s="6"/>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1">
         <v>14</v>
       </c>
-      <c r="B139" s="6"/>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="6"/>
+      <c r="D139" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D139" s="25"/>
-      <c r="E139" s="23"/>
-      <c r="F139" s="14" t="s">
+      <c r="E139" s="25"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G139" s="14" t="s">
+      <c r="H139" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H139" s="5" t="s">
+      <c r="I139" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I139" s="6"/>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="1">
+      <c r="J139" s="6"/>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
         <v>16</v>
       </c>
-      <c r="B140" s="6"/>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="6"/>
+      <c r="D140" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D140" s="25"/>
-      <c r="E140" s="23"/>
-      <c r="F140" s="14" t="s">
+      <c r="E140" s="25"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G140" s="14" t="s">
+      <c r="H140" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H140" s="5" t="s">
+      <c r="I140" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I140" s="6"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="1">
+      <c r="J140" s="6"/>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1">
         <v>19</v>
       </c>
-      <c r="B141" s="6"/>
-      <c r="C141" s="11" t="s">
+      <c r="C141" s="6"/>
+      <c r="D141" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D141" s="25"/>
-      <c r="E141" s="23"/>
-      <c r="F141" s="14" t="s">
+      <c r="E141" s="25"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G141" s="14" t="s">
+      <c r="H141" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H141" s="5" t="s">
+      <c r="I141" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I141" s="6"/>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="1">
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
         <v>22</v>
       </c>
-      <c r="B142" s="6"/>
-      <c r="C142" s="11" t="s">
+      <c r="C142" s="6"/>
+      <c r="D142" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D142" s="25"/>
-      <c r="E142" s="23"/>
-      <c r="F142" s="14" t="s">
+      <c r="E142" s="25"/>
+      <c r="F142" s="23"/>
+      <c r="G142" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G142" s="14" t="s">
+      <c r="H142" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H142" s="5" t="s">
+      <c r="I142" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I142" s="6"/>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="1">
+      <c r="J142" s="6"/>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
         <v>25</v>
       </c>
-      <c r="B143" s="6"/>
-      <c r="C143" s="11" t="s">
+      <c r="C143" s="6"/>
+      <c r="D143" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D143" s="25"/>
-      <c r="E143" s="23"/>
-      <c r="F143" s="14" t="s">
+      <c r="E143" s="25"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G143" s="14" t="s">
+      <c r="H143" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H143" s="5" t="s">
+      <c r="I143" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I143" s="6"/>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="1">
+      <c r="J143" s="6"/>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
         <v>26</v>
       </c>
-      <c r="B144" s="6"/>
-      <c r="C144" s="11" t="s">
+      <c r="C144" s="6"/>
+      <c r="D144" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D144" s="25"/>
-      <c r="E144" s="23"/>
-      <c r="F144" s="14" t="s">
+      <c r="E144" s="25"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G144" s="14" t="s">
+      <c r="H144" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H144" s="5" t="s">
+      <c r="I144" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I144" s="6"/>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="28"/>
-      <c r="B145" s="29"/>
+      <c r="J144" s="6"/>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="28"/>
       <c r="C145" s="29"/>
-      <c r="D145" s="45"/>
+      <c r="D145" s="29"/>
       <c r="E145" s="45"/>
-      <c r="F145" s="46"/>
+      <c r="F145" s="45"/>
       <c r="G145" s="46"/>
       <c r="H145" s="46"/>
-      <c r="I145" s="29"/>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="28"/>
-      <c r="B146" s="29"/>
+      <c r="I145" s="46"/>
+      <c r="J145" s="29"/>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" s="28"/>
       <c r="C146" s="29"/>
-      <c r="D146" s="45"/>
+      <c r="D146" s="29"/>
       <c r="E146" s="45"/>
-      <c r="F146" s="46"/>
+      <c r="F146" s="45"/>
       <c r="G146" s="46"/>
       <c r="H146" s="46"/>
-      <c r="I146" s="29"/>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="15">
+      <c r="I146" s="46"/>
+      <c r="J146" s="29"/>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="15">
         <v>1</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="C149" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C149" s="7"/>
-      <c r="D149" s="25" t="s">
+      <c r="D149" s="7"/>
+      <c r="E149" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E149" s="25" t="s">
+      <c r="F149" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F149" s="5" t="s">
+      <c r="G149" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G149" s="5" t="s">
+      <c r="H149" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H149" s="5" t="s">
+      <c r="I149" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I149" s="6" t="s">
+      <c r="J149" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="15">
-        <v>2</v>
-      </c>
-      <c r="B150" s="13" t="s">
+    <row r="150" spans="1:10">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" s="15">
+        <v>2</v>
+      </c>
+      <c r="C150" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C150" s="7"/>
-      <c r="D150" s="26" t="s">
+      <c r="D150" s="7"/>
+      <c r="E150" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="E150" s="26" t="s">
+      <c r="F150" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="F150" s="5" t="s">
+      <c r="G150" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G150" s="16" t="s">
+      <c r="H150" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="H150" s="5" t="s">
+      <c r="I150" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I150" s="6" t="s">
+      <c r="J150" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="15">
-        <v>3</v>
-      </c>
-      <c r="B151" s="6" t="s">
+    <row r="151" spans="1:10">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="15">
+        <v>3</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C151" s="7"/>
-      <c r="D151" s="25" t="s">
+      <c r="D151" s="7"/>
+      <c r="E151" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E151" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F151" s="5" t="s">
+      <c r="F151" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G151" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G151" s="17" t="s">
+      <c r="H151" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H151" s="5" t="s">
+      <c r="I151" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I151" s="6" t="s">
+      <c r="J151" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="15">
-        <v>4</v>
-      </c>
-      <c r="B152" s="6" t="s">
+    <row r="152" spans="1:10">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" s="15">
+        <v>4</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C152" s="7"/>
-      <c r="D152" s="25" t="s">
+      <c r="D152" s="7"/>
+      <c r="E152" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E152" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F152" s="5" t="s">
+      <c r="F152" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G152" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G152" s="17" t="s">
+      <c r="H152" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H152" s="5" t="s">
+      <c r="I152" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I152" s="6" t="s">
+      <c r="J152" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="15">
+    <row r="153" spans="1:10">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" s="15">
         <v>5</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="C153" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C153" s="7"/>
-      <c r="D153" s="25" t="s">
+      <c r="D153" s="7"/>
+      <c r="E153" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E153" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F153" s="5" t="s">
+      <c r="F153" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G153" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G153" s="17" t="s">
+      <c r="H153" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H153" s="5" t="s">
+      <c r="I153" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I153" s="6" t="s">
+      <c r="J153" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="15">
+    <row r="154" spans="1:10">
+      <c r="A154" s="4">
+        <v>153</v>
+      </c>
+      <c r="B154" s="15">
         <v>6</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="C154" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C154" s="7"/>
-      <c r="D154" s="25" t="s">
+      <c r="D154" s="7"/>
+      <c r="E154" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E154" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F154" s="5" t="s">
+      <c r="F154" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G154" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G154" s="17" t="s">
+      <c r="H154" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H154" s="5" t="s">
+      <c r="I154" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I154" s="6" t="s">
+      <c r="J154" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="15">
+    <row r="155" spans="1:10">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" s="15">
         <v>7</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="C155" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C155" s="7"/>
-      <c r="D155" s="25" t="s">
+      <c r="D155" s="7"/>
+      <c r="E155" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E155" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F155" s="5" t="s">
+      <c r="F155" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G155" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G155" s="17" t="s">
+      <c r="H155" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H155" s="5" t="s">
+      <c r="I155" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I155" s="6" t="s">
+      <c r="J155" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="15">
+    <row r="156" spans="1:10">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
+      <c r="B156" s="15">
         <v>8</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="C156" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C156" s="7"/>
-      <c r="D156" s="25" t="s">
+      <c r="D156" s="7"/>
+      <c r="E156" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E156" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F156" s="5" t="s">
+      <c r="F156" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G156" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G156" s="17" t="s">
+      <c r="H156" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H156" s="5" t="s">
+      <c r="I156" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I156" s="6" t="s">
+      <c r="J156" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="15">
+    <row r="157" spans="1:10">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="15">
         <v>9</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="C157" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C157" s="7"/>
-      <c r="D157" s="25" t="s">
+      <c r="D157" s="7"/>
+      <c r="E157" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E157" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F157" s="5" t="s">
+      <c r="F157" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G157" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G157" s="17" t="s">
+      <c r="H157" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H157" s="5" t="s">
+      <c r="I157" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I157" s="6" t="s">
+      <c r="J157" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="15">
+    <row r="158" spans="1:10">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+      <c r="B158" s="15">
         <v>10</v>
       </c>
-      <c r="B158" s="13" t="s">
+      <c r="C158" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C158" s="7"/>
-      <c r="D158" s="26" t="s">
+      <c r="D158" s="7"/>
+      <c r="E158" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="E158" s="27" t="s">
+      <c r="F158" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="F158" s="5" t="s">
+      <c r="G158" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G158" s="17" t="s">
+      <c r="H158" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H158" s="5" t="s">
+      <c r="I158" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I158" s="6" t="s">
+      <c r="J158" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="15">
+    <row r="159" spans="1:10">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" s="15">
         <v>11</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="C159" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C159" s="7"/>
-      <c r="D159" s="25" t="s">
+      <c r="D159" s="7"/>
+      <c r="E159" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E159" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F159" s="5" t="s">
+      <c r="F159" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G159" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G159" s="17" t="s">
+      <c r="H159" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H159" s="5" t="s">
+      <c r="I159" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I159" s="6" t="s">
+      <c r="J159" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="28"/>
-      <c r="B160" s="29"/>
+    <row r="160" spans="1:10">
+      <c r="A160" s="4">
+        <v>159</v>
+      </c>
+      <c r="B160" s="28"/>
       <c r="C160" s="29"/>
-      <c r="D160" s="45"/>
+      <c r="D160" s="29"/>
       <c r="E160" s="45"/>
-      <c r="F160" s="46"/>
+      <c r="F160" s="45"/>
       <c r="G160" s="46"/>
       <c r="H160" s="46"/>
-      <c r="I160" s="29"/>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="28"/>
-      <c r="B161" s="29"/>
+      <c r="I160" s="46"/>
+      <c r="J160" s="29"/>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" s="28"/>
       <c r="C161" s="29"/>
-      <c r="D161" s="45"/>
+      <c r="D161" s="29"/>
       <c r="E161" s="45"/>
-      <c r="F161" s="46"/>
+      <c r="F161" s="45"/>
       <c r="G161" s="46"/>
       <c r="H161" s="46"/>
-      <c r="I161" s="29"/>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="5">
+      <c r="I161" s="46"/>
+      <c r="J161" s="29"/>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+      <c r="B164" s="5">
         <v>1</v>
       </c>
-      <c r="B164" s="6"/>
-      <c r="C164" s="7" t="s">
+      <c r="C164" s="6"/>
+      <c r="D164" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D164" s="22"/>
-      <c r="E164" s="23"/>
-      <c r="F164" s="5" t="s">
+      <c r="E164" s="22"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G164" s="5" t="s">
+      <c r="H164" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H164" s="5" t="s">
+      <c r="I164" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I164" s="6" t="s">
+      <c r="J164" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="5"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="23"/>
-      <c r="F165" s="5"/>
+    <row r="165" spans="1:10">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+      <c r="B165" s="5"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="23"/>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
-      <c r="I165" s="6"/>
-    </row>
-    <row r="166" spans="1:9">
-      <c r="A166" s="5">
+      <c r="I165" s="5"/>
+      <c r="J165" s="6"/>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
+      <c r="B166" s="5">
         <v>1</v>
       </c>
-      <c r="B166" s="6"/>
-      <c r="C166" s="7" t="s">
+      <c r="C166" s="6"/>
+      <c r="D166" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D166" s="22"/>
-      <c r="E166" s="23"/>
-      <c r="F166" s="5" t="s">
+      <c r="E166" s="22"/>
+      <c r="F166" s="23"/>
+      <c r="G166" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G166" s="5" t="s">
+      <c r="H166" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="H166" s="5" t="s">
+      <c r="I166" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I166" s="6" t="s">
+      <c r="J166" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
-      <c r="A167" s="5" t="s">
+    <row r="167" spans="1:10">
+      <c r="A167" s="4">
+        <v>166</v>
+      </c>
+      <c r="B167" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B167" s="6"/>
-      <c r="C167" s="7" t="s">
+      <c r="C167" s="6"/>
+      <c r="D167" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D167" s="22"/>
-      <c r="E167" s="23"/>
-      <c r="F167" s="5" t="s">
+      <c r="E167" s="22"/>
+      <c r="F167" s="23"/>
+      <c r="G167" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G167" s="5" t="s">
+      <c r="H167" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="H167" s="5" t="s">
+      <c r="I167" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I167" s="65" t="s">
+      <c r="J167" s="65" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
-      <c r="A168" s="5">
+    <row r="168" spans="1:10">
+      <c r="A168" s="4">
+        <v>167</v>
+      </c>
+      <c r="B168" s="5">
         <v>1</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="C168" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="D168" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D168" s="25" t="s">
+      <c r="E168" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E168" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F168" s="5" t="s">
+      <c r="F168" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G168" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G168" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="H168" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I168" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="I168" s="6" t="s">
+      <c r="J168" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
-      <c r="A169" s="5">
+    <row r="169" spans="1:10">
+      <c r="A169" s="4">
+        <v>168</v>
+      </c>
+      <c r="B169" s="5">
         <v>1</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="C169" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="D169" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D169" s="25" t="s">
+      <c r="E169" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E169" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>4</v>
+      <c r="F169" s="25" t="s">
+        <v>2</v>
       </c>
       <c r="G169" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H169" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H169" s="18" t="s">
+      <c r="I169" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="I169" s="12" t="s">
+      <c r="J169" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
-      <c r="A170" s="5">
+    <row r="170" spans="1:10">
+      <c r="A170" s="4">
+        <v>169</v>
+      </c>
+      <c r="B170" s="5">
         <v>1</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="C170" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="D170" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D170" s="25" t="s">
+      <c r="E170" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E170" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>4</v>
+      <c r="F170" s="25" t="s">
+        <v>2</v>
       </c>
       <c r="G170" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H170" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H170" s="5" t="s">
+      <c r="I170" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I170" s="12" t="s">
+      <c r="J170" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
-      <c r="A171" s="5">
+    <row r="171" spans="1:10">
+      <c r="B171" s="5"/>
+      <c r="C171" s="72" t="s">
+        <v>298</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E171" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F171" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="4">
+        <v>170</v>
+      </c>
+      <c r="B172" s="5">
         <v>1</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="C172" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="D172" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D171" s="25" t="s">
+      <c r="E172" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E171" s="25" t="s">
+      <c r="F172" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="G172" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G171" s="5" t="s">
+      <c r="H172" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H171" s="18" t="s">
+      <c r="I172" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="I171" s="12" t="s">
+      <c r="J172" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
-      <c r="A172" s="28"/>
-      <c r="B172" s="29"/>
-      <c r="C172" s="29"/>
-      <c r="D172" s="45"/>
-      <c r="E172" s="45"/>
-      <c r="F172" s="46"/>
-      <c r="G172" s="46"/>
-      <c r="H172" s="46"/>
-      <c r="I172" s="29"/>
-    </row>
-    <row r="173" spans="1:9">
-      <c r="A173" s="28"/>
-      <c r="B173" s="29"/>
+    <row r="173" spans="1:10">
+      <c r="A173" s="4">
+        <v>171</v>
+      </c>
+      <c r="B173" s="28"/>
       <c r="C173" s="29"/>
-      <c r="D173" s="45"/>
+      <c r="D173" s="29"/>
       <c r="E173" s="45"/>
-      <c r="F173" s="46"/>
+      <c r="F173" s="45"/>
       <c r="G173" s="46"/>
       <c r="H173" s="46"/>
-      <c r="I173" s="29"/>
-    </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="5"/>
-      <c r="B176" s="6" t="s">
+      <c r="I173" s="46"/>
+      <c r="J173" s="29"/>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="4">
+        <v>172</v>
+      </c>
+      <c r="B174" s="28"/>
+      <c r="C174" s="29"/>
+      <c r="D174" s="29"/>
+      <c r="E174" s="45"/>
+      <c r="F174" s="45"/>
+      <c r="G174" s="46"/>
+      <c r="H174" s="46"/>
+      <c r="I174" s="46"/>
+      <c r="J174" s="29"/>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" s="4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" s="4">
+        <v>175</v>
+      </c>
+      <c r="B177" s="5"/>
+      <c r="C177" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="D177" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D176" s="68" t="s">
+      <c r="E177" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="E176" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="F176" s="6" t="s">
+      <c r="F177" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G177" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G176" s="6" t="s">
+      <c r="H177" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="H176" s="66" t="s">
+      <c r="I177" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="I176" s="67" t="s">
+      <c r="J177" s="67" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="5"/>
-      <c r="B177" s="6" t="s">
+    <row r="178" spans="1:10">
+      <c r="A178" s="4">
+        <v>176</v>
+      </c>
+      <c r="B178" s="5"/>
+      <c r="C178" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="D178" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D177" s="68" t="s">
+      <c r="E178" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="E177" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="F177" s="6" t="s">
+      <c r="F178" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G178" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G177" s="6" t="s">
+      <c r="H178" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="H177" s="66" t="s">
+      <c r="I178" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="I177" s="67" t="s">
+      <c r="J178" s="67" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="5"/>
-      <c r="B178" s="6" t="s">
+    <row r="179" spans="1:10">
+      <c r="A179" s="4">
+        <v>177</v>
+      </c>
+      <c r="B179" s="5"/>
+      <c r="C179" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="D179" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D178" s="68" t="s">
+      <c r="E179" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="E178" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="F178" s="6" t="s">
+      <c r="F179" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G179" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G178" s="6" t="s">
+      <c r="H179" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="H178" s="66" t="s">
+      <c r="I179" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="I178" s="67" t="s">
+      <c r="J179" s="67" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
-      <c r="A179" s="5"/>
-      <c r="B179" s="6" t="s">
+    <row r="180" spans="1:10">
+      <c r="A180" s="4">
+        <v>178</v>
+      </c>
+      <c r="B180" s="5"/>
+      <c r="C180" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="D180" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D179" s="68" t="s">
+      <c r="E180" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="E179" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="F179" s="6" t="s">
+      <c r="F180" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G180" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G179" s="6" t="s">
+      <c r="H180" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="H179" s="66" t="s">
+      <c r="I180" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="I179" s="67" t="s">
+      <c r="J180" s="67" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="5"/>
-      <c r="B180" s="6" t="s">
+    <row r="181" spans="1:10">
+      <c r="A181" s="4">
+        <v>179</v>
+      </c>
+      <c r="B181" s="5"/>
+      <c r="C181" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="D181" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D180" s="68" t="s">
+      <c r="E181" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="E180" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="F180" s="6" t="s">
+      <c r="F181" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G181" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G180" s="6" t="s">
+      <c r="H181" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="H180" s="66" t="s">
+      <c r="I181" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="I180" s="67" t="s">
+      <c r="J181" s="67" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
-      <c r="A181" s="5"/>
-      <c r="B181" s="6" t="s">
+    <row r="182" spans="1:10">
+      <c r="A182" s="4">
+        <v>180</v>
+      </c>
+      <c r="B182" s="5"/>
+      <c r="C182" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="D182" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D181" s="68" t="s">
+      <c r="E182" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="E181" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="F181" s="6" t="s">
+      <c r="F182" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G182" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G181" s="6" t="s">
+      <c r="H182" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="H181" s="66" t="s">
+      <c r="I182" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="I181" s="67" t="s">
+      <c r="J182" s="67" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
-      <c r="A182" s="60"/>
-      <c r="B182" s="60"/>
-      <c r="C182" s="60"/>
-      <c r="D182" s="60"/>
-      <c r="E182" s="60"/>
-      <c r="F182" s="60"/>
-      <c r="G182" s="60"/>
-      <c r="H182" s="60"/>
-      <c r="I182" s="60"/>
-    </row>
-    <row r="183" spans="1:9">
-      <c r="A183" s="5"/>
-      <c r="B183" s="6" t="s">
+    <row r="183" spans="1:10">
+      <c r="A183" s="4">
+        <v>181</v>
+      </c>
+      <c r="B183" s="60"/>
+      <c r="C183" s="60"/>
+      <c r="D183" s="60"/>
+      <c r="E183" s="60"/>
+      <c r="F183" s="60"/>
+      <c r="G183" s="60"/>
+      <c r="H183" s="60"/>
+      <c r="I183" s="60"/>
+      <c r="J183" s="60"/>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="4">
+        <v>182</v>
+      </c>
+      <c r="B184" s="5"/>
+      <c r="C184" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="D184" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D183" s="68" t="s">
+      <c r="E184" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="E183" s="68" t="s">
+      <c r="F184" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="F183" s="6" t="s">
+      <c r="G184" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G183" s="6" t="s">
+      <c r="H184" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="H183" s="66" t="s">
+      <c r="I184" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="I183" s="67" t="s">
+      <c r="J184" s="67" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
-      <c r="A184" s="5"/>
-      <c r="B184" s="6" t="s">
+    <row r="185" spans="1:10">
+      <c r="A185" s="4">
+        <v>183</v>
+      </c>
+      <c r="B185" s="5"/>
+      <c r="C185" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="D185" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D184" s="68" t="s">
+      <c r="E185" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="E184" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="F184" s="6" t="s">
+      <c r="F185" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G185" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G184" s="6" t="s">
+      <c r="H185" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="H184" s="66" t="s">
+      <c r="I185" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="I184" s="67" t="s">
+      <c r="J185" s="67" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
-      <c r="A185" s="5"/>
-      <c r="B185" s="6" t="s">
+    <row r="186" spans="1:10">
+      <c r="A186" s="4">
+        <v>184</v>
+      </c>
+      <c r="B186" s="5"/>
+      <c r="C186" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="D186" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D185" s="68" t="s">
+      <c r="E186" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="E185" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="F185" s="6" t="s">
+      <c r="F186" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G186" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G185" s="6" t="s">
+      <c r="H186" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="H185" s="66" t="s">
+      <c r="I186" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="I185" s="67" t="s">
+      <c r="J186" s="67" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="5"/>
-      <c r="B186" s="6" t="s">
+    <row r="187" spans="1:10">
+      <c r="A187" s="4">
+        <v>185</v>
+      </c>
+      <c r="B187" s="5"/>
+      <c r="C187" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="D187" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D186" s="68" t="s">
+      <c r="E187" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="E186" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="F186" s="6" t="s">
+      <c r="F187" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G187" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G186" s="6" t="s">
+      <c r="H187" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="H186" s="66" t="s">
+      <c r="I187" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="I186" s="67" t="s">
+      <c r="J187" s="67" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
-      <c r="A187" s="5"/>
-      <c r="B187" s="6" t="s">
+    <row r="188" spans="1:10">
+      <c r="A188" s="4">
+        <v>186</v>
+      </c>
+      <c r="B188" s="5"/>
+      <c r="C188" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="D188" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D187" s="68" t="s">
+      <c r="E188" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="E187" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="F187" s="6" t="s">
+      <c r="F188" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G188" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G187" s="6" t="s">
+      <c r="H188" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="H187" s="66" t="s">
+      <c r="I188" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="I187" s="67" t="s">
+      <c r="J188" s="67" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
-      <c r="A188" s="28"/>
-      <c r="B188" s="29"/>
-      <c r="C188" s="29"/>
-      <c r="D188" s="45"/>
-      <c r="E188" s="45"/>
-      <c r="F188" s="46"/>
-      <c r="G188" s="46"/>
-      <c r="H188" s="46"/>
-      <c r="I188" s="29"/>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="28"/>
-      <c r="B189" s="29"/>
+    <row r="189" spans="1:10">
+      <c r="A189" s="4">
+        <v>187</v>
+      </c>
+      <c r="B189" s="28"/>
       <c r="C189" s="29"/>
-      <c r="D189" s="45"/>
+      <c r="D189" s="29"/>
       <c r="E189" s="45"/>
-      <c r="F189" s="46"/>
+      <c r="F189" s="45"/>
       <c r="G189" s="46"/>
       <c r="H189" s="46"/>
-      <c r="I189" s="29"/>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="A192" s="5">
+      <c r="I189" s="46"/>
+      <c r="J189" s="29"/>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" s="4">
+        <v>188</v>
+      </c>
+      <c r="B190" s="28"/>
+      <c r="C190" s="29"/>
+      <c r="D190" s="29"/>
+      <c r="E190" s="45"/>
+      <c r="F190" s="45"/>
+      <c r="G190" s="46"/>
+      <c r="H190" s="46"/>
+      <c r="I190" s="46"/>
+      <c r="J190" s="29"/>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" s="4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" s="4">
+        <v>191</v>
+      </c>
+      <c r="B193" s="5">
         <v>1</v>
       </c>
-      <c r="B192" s="19" t="s">
+      <c r="C193" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="C192" s="19" t="s">
+      <c r="D193" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D192" s="23" t="s">
+      <c r="E193" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="E192" s="23" t="s">
+      <c r="F193" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="F192" s="5" t="s">
+      <c r="G193" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G192" s="5" t="s">
+      <c r="H193" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="H192" s="5" t="s">
+      <c r="I193" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="I192" s="12" t="s">
+      <c r="J193" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
-      <c r="A193" s="60"/>
-      <c r="B193" s="61"/>
-      <c r="C193" s="62"/>
-      <c r="D193" s="63"/>
-      <c r="E193" s="63"/>
-      <c r="F193" s="64"/>
-      <c r="G193" s="64"/>
-      <c r="H193" s="60"/>
-      <c r="I193" s="61"/>
-    </row>
-    <row r="194" spans="1:9" ht="20" customHeight="1">
-      <c r="A194" s="5">
+    <row r="194" spans="1:10">
+      <c r="A194" s="4">
+        <v>192</v>
+      </c>
+      <c r="B194" s="60"/>
+      <c r="C194" s="61"/>
+      <c r="D194" s="62"/>
+      <c r="E194" s="63"/>
+      <c r="F194" s="63"/>
+      <c r="G194" s="64"/>
+      <c r="H194" s="64"/>
+      <c r="I194" s="60"/>
+      <c r="J194" s="61"/>
+    </row>
+    <row r="195" spans="1:10" ht="20" customHeight="1">
+      <c r="A195" s="4">
+        <v>193</v>
+      </c>
+      <c r="B195" s="5">
         <v>1</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="C195" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="D195" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D194" s="23" t="s">
+      <c r="E195" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="E194" s="23" t="s">
+      <c r="F195" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="F194" s="5" t="s">
+      <c r="G195" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G194" s="5" t="s">
+      <c r="H195" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H194" s="5" t="s">
+      <c r="I195" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="I194" s="6" t="s">
+      <c r="J195" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="20" customHeight="1">
-      <c r="A195" s="5">
-        <v>2</v>
-      </c>
-      <c r="B195" s="6" t="s">
+    <row r="196" spans="1:10" ht="20" customHeight="1">
+      <c r="A196" s="4">
+        <v>194</v>
+      </c>
+      <c r="B196" s="5">
+        <v>2</v>
+      </c>
+      <c r="C196" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="D196" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D195" s="23" t="s">
+      <c r="E196" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="E195" s="23" t="s">
+      <c r="F196" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="F195" s="5" t="s">
+      <c r="G196" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G195" s="5" t="s">
+      <c r="H196" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H195" s="5" t="s">
+      <c r="I196" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="I195" s="6" t="s">
+      <c r="J196" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="20" customHeight="1">
-      <c r="A196" s="5">
-        <v>3</v>
-      </c>
-      <c r="B196" s="6" t="s">
+    <row r="197" spans="1:10" ht="20" customHeight="1">
+      <c r="A197" s="4">
+        <v>195</v>
+      </c>
+      <c r="B197" s="5">
+        <v>3</v>
+      </c>
+      <c r="C197" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="D197" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D196" s="23" t="s">
+      <c r="E197" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="E196" s="23" t="s">
+      <c r="F197" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="F196" s="5" t="s">
+      <c r="G197" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G196" s="5" t="s">
+      <c r="H197" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H196" s="5" t="s">
+      <c r="I197" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="I196" s="6" t="s">
+      <c r="J197" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="20" customHeight="1">
-      <c r="A197" s="5">
-        <v>4</v>
-      </c>
-      <c r="B197" s="6" t="s">
+    <row r="198" spans="1:10" ht="20" customHeight="1">
+      <c r="A198" s="4">
+        <v>196</v>
+      </c>
+      <c r="B198" s="5">
+        <v>4</v>
+      </c>
+      <c r="C198" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="D198" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D197" s="23" t="s">
+      <c r="E198" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="E197" s="23" t="s">
+      <c r="F198" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="F197" s="5" t="s">
+      <c r="G198" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G197" s="5" t="s">
+      <c r="H198" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H197" s="5" t="s">
+      <c r="I198" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="I197" s="6" t="s">
+      <c r="J198" s="6" t="s">
         <v>220</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I89" r:id="rId1" location="abs/2022ApJ...925...97P/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2022ApJ...925...97P/abstract" xr:uid="{B3413BC8-017C-6749-82D9-78DBC260D435}"/>
-    <hyperlink ref="I103" r:id="rId2" location="abs/2011MNRAS.414.2674G/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2011MNRAS.414.2674G/abstract" xr:uid="{6DC0DA13-5022-4F40-9E4D-37B034F72047}"/>
-    <hyperlink ref="I93" r:id="rId3" location="abs/2020ApJ...892..105A/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2020ApJ...892..105A/abstract" xr:uid="{B8162F2C-7D6F-B443-A73D-84E9811957B8}"/>
-    <hyperlink ref="I97" r:id="rId4" location="abs/2014ApJ...797...19R/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2014ApJ...797...19R/abstract" xr:uid="{2B58C45C-5484-4146-9A74-7FF196586F26}"/>
-    <hyperlink ref="I98" r:id="rId5" location="abs/2014ApJ...797...19R/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2014ApJ...797...19R/abstract" xr:uid="{5389C1CD-1113-EA49-906B-3FC89CC49F88}"/>
-    <hyperlink ref="I169" r:id="rId6" location="abs/2021ApJ...913..146M/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2021ApJ...913..146M/abstract" xr:uid="{09A28CA7-2A29-0E4B-BFBE-225FA2C09C86}"/>
-    <hyperlink ref="I170" r:id="rId7" location="abs/2014MNRAS.445.4316C/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2014MNRAS.445.4316C/abstract" xr:uid="{42A0F087-88CB-CA4C-96C9-92A54482E077}"/>
-    <hyperlink ref="I171" r:id="rId8" location="abs/2019MNRAS.484L.104P/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2019MNRAS.484L.104P/abstract" xr:uid="{04F1DF9F-F0D7-B941-8AFD-29833CE7A70B}"/>
-    <hyperlink ref="I105" r:id="rId9" location="abs/2011MNRAS.414.2674G/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2011MNRAS.414.2674G/abstract" xr:uid="{7F6EC028-E80D-BD4B-AF2D-B2549860662B}"/>
-    <hyperlink ref="I107" r:id="rId10" location="abs/2011MNRAS.414.2674G/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2011MNRAS.414.2674G/abstract" xr:uid="{50E47CE7-3A43-E64A-A4D5-4ED0A38C426C}"/>
-    <hyperlink ref="I192" r:id="rId11" location="abs/2013MNRAS.432L..66G/abstract" display="https://ui.adsabs.harvard.edu/abs/2012MNRAS.425.1371G - abs/2013MNRAS.432L..66G/abstract" xr:uid="{668C835E-9913-6D49-9B5C-0FA807C7E64F}"/>
-    <hyperlink ref="I96" r:id="rId12" location="abs/2014ApJ...797...19R/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2014ApJ...797...19R/abstract" xr:uid="{FD6444BB-00E3-7B44-9F94-469B283F460F}"/>
-    <hyperlink ref="I167" r:id="rId13" location="abs/2019RNAAS...3...92P/abstract" display="https://ui.adsabs.harvard.edu/abs/2019RNAAS...3...92P - abs/2019RNAAS...3...92P/abstract" xr:uid="{48BF7E70-B8EB-1A49-A543-675BF717DD20}"/>
+    <hyperlink ref="J89" r:id="rId1" location="abs/2022ApJ...925...97P/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2022ApJ...925...97P/abstract" xr:uid="{B3413BC8-017C-6749-82D9-78DBC260D435}"/>
+    <hyperlink ref="J103" r:id="rId2" location="abs/2011MNRAS.414.2674G/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2011MNRAS.414.2674G/abstract" xr:uid="{6DC0DA13-5022-4F40-9E4D-37B034F72047}"/>
+    <hyperlink ref="J93" r:id="rId3" location="abs/2020ApJ...892..105A/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2020ApJ...892..105A/abstract" xr:uid="{B8162F2C-7D6F-B443-A73D-84E9811957B8}"/>
+    <hyperlink ref="J97" r:id="rId4" location="abs/2014ApJ...797...19R/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2014ApJ...797...19R/abstract" xr:uid="{2B58C45C-5484-4146-9A74-7FF196586F26}"/>
+    <hyperlink ref="J98" r:id="rId5" location="abs/2014ApJ...797...19R/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2014ApJ...797...19R/abstract" xr:uid="{5389C1CD-1113-EA49-906B-3FC89CC49F88}"/>
+    <hyperlink ref="J169" r:id="rId6" location="abs/2021ApJ...913..146M/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2021ApJ...913..146M/abstract" xr:uid="{09A28CA7-2A29-0E4B-BFBE-225FA2C09C86}"/>
+    <hyperlink ref="J170" r:id="rId7" location="abs/2014MNRAS.445.4316C/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2014MNRAS.445.4316C/abstract" xr:uid="{42A0F087-88CB-CA4C-96C9-92A54482E077}"/>
+    <hyperlink ref="J172" r:id="rId8" location="abs/2019MNRAS.484L.104P/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2019MNRAS.484L.104P/abstract" xr:uid="{04F1DF9F-F0D7-B941-8AFD-29833CE7A70B}"/>
+    <hyperlink ref="J105" r:id="rId9" location="abs/2011MNRAS.414.2674G/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2011MNRAS.414.2674G/abstract" xr:uid="{7F6EC028-E80D-BD4B-AF2D-B2549860662B}"/>
+    <hyperlink ref="J107" r:id="rId10" location="abs/2011MNRAS.414.2674G/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2011MNRAS.414.2674G/abstract" xr:uid="{50E47CE7-3A43-E64A-A4D5-4ED0A38C426C}"/>
+    <hyperlink ref="J193" r:id="rId11" location="abs/2013MNRAS.432L..66G/abstract" display="https://ui.adsabs.harvard.edu/abs/2012MNRAS.425.1371G - abs/2013MNRAS.432L..66G/abstract" xr:uid="{668C835E-9913-6D49-9B5C-0FA807C7E64F}"/>
+    <hyperlink ref="J96" r:id="rId12" location="abs/2014ApJ...797...19R/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2014ApJ...797...19R/abstract" xr:uid="{FD6444BB-00E3-7B44-9F94-469B283F460F}"/>
+    <hyperlink ref="J167" r:id="rId13" location="abs/2019RNAAS...3...92P/abstract" display="https://ui.adsabs.harvard.edu/abs/2019RNAAS...3...92P - abs/2019RNAAS...3...92P/abstract" xr:uid="{48BF7E70-B8EB-1A49-A543-675BF717DD20}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="42" fitToHeight="3" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/CLB_Catalog.xlsx
+++ b/CLB_Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksj/Desktop/A22L_CLB_catlog/_CL_blazar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B85CDE-DBD7-0B43-84CC-F0AC1198C638}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6E9BAF-1890-2048-94E5-6665BBB035E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="500" windowWidth="29460" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="500" windowWidth="29460" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FanXL_Low" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="320">
   <si>
     <t>reference</t>
   </si>
@@ -1183,12 +1183,78 @@
   <si>
     <t>2009A&amp;A...496..423B</t>
   </si>
+  <si>
+    <t>FGL_Name</t>
+  </si>
+  <si>
+    <t>ASSOC_name</t>
+  </si>
+  <si>
+    <t>4FGL_Class</t>
+  </si>
+  <si>
+    <t>4FGL_SED_Class</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>ADS</t>
+  </si>
+  <si>
+    <t>4FGL J0114.8+1326</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1bzb/2bzq/3CB/4CB </t>
+  </si>
+  <si>
+    <t>Fan2022</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022ApJ...935....4Z</t>
+  </si>
+  <si>
+    <t>4FGL J0203.7+3042</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1agu/ 2bzq/3CB/4CB </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>4FGL J0407.5+0741</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1bzq/2bzq/3CB/ 4CB </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fan2022</t>
+  </si>
+  <si>
+    <t>4FGL J0433.1+3227</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1bzq/2bzq/3BCU/4CB </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1bzq/2bzb/3CB/4CB</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1316,6 +1382,16 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1509,7 +1585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1727,6 +1803,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2008,11 +2087,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J198"/>
+  <dimension ref="A1:J207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="108" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L167" sqref="L167"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="108" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K202" sqref="K202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2027,7 +2106,8 @@
     <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="26" style="1" customWidth="1"/>
     <col min="10" max="10" width="28.83203125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="4"/>
+    <col min="11" max="11" width="19.6640625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="58" customHeight="1">
@@ -7094,6 +7174,181 @@
       </c>
       <c r="J198" s="6" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" s="4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201" s="4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202" s="4">
+        <v>200</v>
+      </c>
+      <c r="B202" s="23"/>
+      <c r="C202" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D202" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="E202" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="F202" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="G202" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="H202" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="I202" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J202" s="26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" s="4">
+        <v>201</v>
+      </c>
+      <c r="B203" s="5">
+        <v>1</v>
+      </c>
+      <c r="C203" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D203" s="25"/>
+      <c r="E203" s="25"/>
+      <c r="F203" s="25"/>
+      <c r="G203" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H203" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="I203" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="J203" s="73" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" s="4">
+        <v>202</v>
+      </c>
+      <c r="B204" s="5">
+        <v>2</v>
+      </c>
+      <c r="C204" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="D204" s="25"/>
+      <c r="E204" s="25"/>
+      <c r="F204" s="25"/>
+      <c r="G204" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="H204" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="I204" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="J204" s="73" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205" s="4">
+        <v>203</v>
+      </c>
+      <c r="B205" s="5">
+        <v>3</v>
+      </c>
+      <c r="C205" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D205" s="25"/>
+      <c r="E205" s="25"/>
+      <c r="F205" s="25"/>
+      <c r="G205" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H205" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="I205" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="J205" s="73" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206" s="4">
+        <v>204</v>
+      </c>
+      <c r="B206" s="5">
+        <v>4</v>
+      </c>
+      <c r="C206" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="D206" s="25"/>
+      <c r="E206" s="25"/>
+      <c r="F206" s="25"/>
+      <c r="G206" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="H206" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="I206" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="J206" s="73" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" s="4">
+        <v>205</v>
+      </c>
+      <c r="B207" s="5">
+        <v>5</v>
+      </c>
+      <c r="C207" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="D207" s="25"/>
+      <c r="E207" s="25"/>
+      <c r="F207" s="25"/>
+      <c r="G207" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="H207" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="I207" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="J207" s="73" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -7112,6 +7367,11 @@
     <hyperlink ref="J193" r:id="rId11" location="abs/2013MNRAS.432L..66G/abstract" display="https://ui.adsabs.harvard.edu/abs/2012MNRAS.425.1371G - abs/2013MNRAS.432L..66G/abstract" xr:uid="{668C835E-9913-6D49-9B5C-0FA807C7E64F}"/>
     <hyperlink ref="J96" r:id="rId12" location="abs/2014ApJ...797...19R/abstract" display="https://ui.adsabs.harvard.edu/ - abs/2014ApJ...797...19R/abstract" xr:uid="{FD6444BB-00E3-7B44-9F94-469B283F460F}"/>
     <hyperlink ref="J167" r:id="rId13" location="abs/2019RNAAS...3...92P/abstract" display="https://ui.adsabs.harvard.edu/abs/2019RNAAS...3...92P - abs/2019RNAAS...3...92P/abstract" xr:uid="{48BF7E70-B8EB-1A49-A543-675BF717DD20}"/>
+    <hyperlink ref="J203" r:id="rId14" location="abs/2022ApJ...935....4Z/abstract" display="https://ui.adsabs.harvard.edu/paper-form/ - abs/2022ApJ...935....4Z/abstract" xr:uid="{40C64D7A-C934-BB46-AFA1-D96D96DE1948}"/>
+    <hyperlink ref="J204" r:id="rId15" location="abs/2022ApJ...935....4Z/abstract" display="https://ui.adsabs.harvard.edu/paper-form/ - abs/2022ApJ...935....4Z/abstract" xr:uid="{35DB315C-44B1-0241-B5AC-37E19370DD84}"/>
+    <hyperlink ref="J205" r:id="rId16" location="abs/2022ApJ...935....4Z/abstract" display="https://ui.adsabs.harvard.edu/paper-form/ - abs/2022ApJ...935....4Z/abstract" xr:uid="{46D2152F-0701-B84F-A400-BDFD7645F440}"/>
+    <hyperlink ref="J206" r:id="rId17" location="abs/2022ApJ...935....4Z/abstract" display="https://ui.adsabs.harvard.edu/paper-form/ - abs/2022ApJ...935....4Z/abstract" xr:uid="{E4245446-4265-BC4F-85E4-489E4078F128}"/>
+    <hyperlink ref="J207" r:id="rId18" location="abs/2022ApJ...935....4Z/abstract" display="https://ui.adsabs.harvard.edu/paper-form/ - abs/2022ApJ...935....4Z/abstract" xr:uid="{C5EE3FFB-761F-2242-8F4D-6412D56FB7A1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="42" fitToHeight="3" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/CLB_Catalog.xlsx
+++ b/CLB_Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksj/Desktop/A22L_CLB_catlog/_CL_blazar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6E9BAF-1890-2048-94E5-6665BBB035E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50D75D8-1573-5A48-888F-51E142072345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="500" windowWidth="29460" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4960" yWindow="4920" windowWidth="29460" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FanXL_Low" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="329">
   <si>
     <t>reference</t>
   </si>
@@ -1247,6 +1247,42 @@
   </si>
   <si>
     <t>1bzq/2bzb/3CB/4CB</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB6 J0114+1325</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>bll</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISP</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVSS J020344+304238</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSP</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXS 0404+075</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVSS J043307+322840</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSP</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>4C +01.28</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -2089,9 +2125,9 @@
   </sheetPr>
   <dimension ref="A1:J207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="108" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K202" sqref="K202"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C203" sqref="C203:F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -7231,9 +7267,15 @@
       <c r="C203" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="D203" s="25"/>
-      <c r="E203" s="25"/>
-      <c r="F203" s="25"/>
+      <c r="D203" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E203" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F203" s="25" t="s">
+        <v>322</v>
+      </c>
       <c r="G203" s="25" t="s">
         <v>308</v>
       </c>
@@ -7257,9 +7299,15 @@
       <c r="C204" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="D204" s="25"/>
-      <c r="E204" s="25"/>
-      <c r="F204" s="25"/>
+      <c r="D204" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="E204" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F204" s="25" t="s">
+        <v>324</v>
+      </c>
       <c r="G204" s="25" t="s">
         <v>312</v>
       </c>
@@ -7283,9 +7331,15 @@
       <c r="C205" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="D205" s="25"/>
-      <c r="E205" s="25"/>
-      <c r="F205" s="25"/>
+      <c r="D205" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="E205" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F205" s="25" t="s">
+        <v>324</v>
+      </c>
       <c r="G205" s="25" t="s">
         <v>314</v>
       </c>
@@ -7309,9 +7363,15 @@
       <c r="C206" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="D206" s="25"/>
-      <c r="E206" s="25"/>
-      <c r="F206" s="25"/>
+      <c r="D206" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="E206" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F206" s="25" t="s">
+        <v>327</v>
+      </c>
       <c r="G206" s="25" t="s">
         <v>317</v>
       </c>
@@ -7335,9 +7395,15 @@
       <c r="C207" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="D207" s="25"/>
-      <c r="E207" s="25"/>
-      <c r="F207" s="25"/>
+      <c r="D207" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E207" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F207" s="25" t="s">
+        <v>324</v>
+      </c>
       <c r="G207" s="25" t="s">
         <v>292</v>
       </c>
